--- a/docs/鍵盤設計規格_河洛標音.xlsx
+++ b/docs/鍵盤設計規格_河洛標音.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739F1C9-ABB2-4D47-B6EA-5DE2C97FADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6CC42-E167-4E11-A400-DC1A43ECD39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{0AF7ADCD-4E9F-41EF-8FE7-6FC3D4FFA641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name=" 河洛標音鍵盤設計" sheetId="19" r:id="rId1"/>
@@ -5659,7 +5658,7 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7216,6 +7215,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7234,21 +7272,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7261,24 +7284,6 @@
     <xf numFmtId="0" fontId="124" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7288,14 +7293,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7304,15 +7315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7333,17 +7335,14 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7351,11 +7350,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7366,13 +7365,76 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="15" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="15" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="15" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="15" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="15" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7393,28 +7455,22 @@
     <xf numFmtId="0" fontId="71" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="15" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7426,92 +7482,14 @@
     <xf numFmtId="0" fontId="77" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="75" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="15" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="15" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="15" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="15" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -10901,9 +10879,6 @@
     <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AZ27" sqref="AZ27"/>
     </sheetView>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
-      <selection activeCell="X12" sqref="X12"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="25.5" outlineLevelCol="1"/>
   <cols>
@@ -10977,66 +10952,66 @@
     </row>
     <row r="2" spans="1:85" s="406" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="404"/>
-      <c r="B2" s="566" t="s">
+      <c r="B2" s="565" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="567"/>
-      <c r="D2" s="568"/>
-      <c r="E2" s="566" t="s">
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="565" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="575" t="s">
+      <c r="F2" s="566"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="562" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="576"/>
-      <c r="J2" s="577"/>
-      <c r="K2" s="575" t="s">
+      <c r="I2" s="563"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="562" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="576"/>
-      <c r="M2" s="577"/>
-      <c r="N2" s="578">
+      <c r="L2" s="563"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="568">
         <v>0.05</v>
       </c>
-      <c r="O2" s="579"/>
-      <c r="P2" s="580"/>
-      <c r="Q2" s="575" t="s">
+      <c r="O2" s="569"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="562" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="576"/>
-      <c r="S2" s="577"/>
-      <c r="T2" s="575" t="s">
+      <c r="R2" s="563"/>
+      <c r="S2" s="564"/>
+      <c r="T2" s="562" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="576"/>
-      <c r="V2" s="577"/>
-      <c r="W2" s="560" t="s">
+      <c r="U2" s="563"/>
+      <c r="V2" s="564"/>
+      <c r="W2" s="573" t="s">
         <v>699</v>
       </c>
-      <c r="X2" s="561"/>
-      <c r="Y2" s="562"/>
-      <c r="Z2" s="560" t="s">
+      <c r="X2" s="574"/>
+      <c r="Y2" s="575"/>
+      <c r="Z2" s="573" t="s">
         <v>700</v>
       </c>
-      <c r="AA2" s="561"/>
-      <c r="AB2" s="562"/>
-      <c r="AC2" s="560" t="s">
+      <c r="AA2" s="574"/>
+      <c r="AB2" s="575"/>
+      <c r="AC2" s="573" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="561"/>
-      <c r="AE2" s="562"/>
-      <c r="AF2" s="563" t="s">
+      <c r="AD2" s="574"/>
+      <c r="AE2" s="575"/>
+      <c r="AF2" s="576" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="564"/>
-      <c r="AH2" s="565"/>
-      <c r="AI2" s="563" t="s">
+      <c r="AG2" s="577"/>
+      <c r="AH2" s="578"/>
+      <c r="AI2" s="576" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="564"/>
-      <c r="AK2" s="565"/>
+      <c r="AJ2" s="577"/>
+      <c r="AK2" s="578"/>
       <c r="AL2" s="404"/>
       <c r="AM2" s="404"/>
       <c r="AN2" s="404"/>
@@ -11205,38 +11180,38 @@
       <c r="G4" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="571" t="s">
+      <c r="H4" s="579" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="572"/>
+      <c r="I4" s="580"/>
       <c r="J4" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="573" t="s">
+      <c r="K4" s="581" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="574"/>
+      <c r="L4" s="582"/>
       <c r="M4" s="435" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="571" t="s">
+      <c r="N4" s="579" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="572"/>
+      <c r="O4" s="580"/>
       <c r="P4" s="435" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="573" t="s">
+      <c r="Q4" s="581" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="574"/>
+      <c r="R4" s="582"/>
       <c r="S4" s="435" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="571" t="s">
+      <c r="T4" s="579" t="s">
         <v>707</v>
       </c>
-      <c r="U4" s="572"/>
+      <c r="U4" s="580"/>
       <c r="V4" s="435" t="s">
         <v>708</v>
       </c>
@@ -11270,8 +11245,8 @@
       <c r="AF4" s="438"/>
       <c r="AG4" s="437"/>
       <c r="AH4" s="439"/>
-      <c r="AI4" s="569"/>
-      <c r="AJ4" s="570"/>
+      <c r="AI4" s="571"/>
+      <c r="AJ4" s="572"/>
       <c r="AK4" s="440"/>
       <c r="AL4" s="431"/>
       <c r="AM4" s="431"/>
@@ -11355,71 +11330,71 @@
     <row r="5" spans="1:85" s="406" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="404"/>
       <c r="B5" s="404"/>
-      <c r="C5" s="566" t="s">
+      <c r="C5" s="565" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="567"/>
-      <c r="E5" s="568"/>
-      <c r="F5" s="566" t="s">
+      <c r="D5" s="566"/>
+      <c r="E5" s="567"/>
+      <c r="F5" s="565" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="567"/>
-      <c r="H5" s="568"/>
-      <c r="I5" s="566" t="s">
+      <c r="G5" s="566"/>
+      <c r="H5" s="567"/>
+      <c r="I5" s="565" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="567"/>
-      <c r="K5" s="568"/>
-      <c r="L5" s="566" t="s">
+      <c r="J5" s="566"/>
+      <c r="K5" s="567"/>
+      <c r="L5" s="565" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="567"/>
-      <c r="N5" s="568"/>
-      <c r="O5" s="566" t="s">
+      <c r="M5" s="566"/>
+      <c r="N5" s="567"/>
+      <c r="O5" s="565" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="567"/>
-      <c r="Q5" s="568"/>
-      <c r="R5" s="566" t="s">
+      <c r="P5" s="566"/>
+      <c r="Q5" s="567"/>
+      <c r="R5" s="565" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="567"/>
-      <c r="T5" s="568"/>
-      <c r="U5" s="560" t="s">
+      <c r="S5" s="566"/>
+      <c r="T5" s="567"/>
+      <c r="U5" s="573" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="561"/>
-      <c r="W5" s="562"/>
-      <c r="X5" s="560" t="s">
+      <c r="V5" s="574"/>
+      <c r="W5" s="575"/>
+      <c r="X5" s="573" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="561"/>
-      <c r="Z5" s="562"/>
-      <c r="AA5" s="560" t="s">
+      <c r="Y5" s="574"/>
+      <c r="Z5" s="575"/>
+      <c r="AA5" s="573" t="s">
         <v>32</v>
       </c>
-      <c r="AB5" s="561"/>
-      <c r="AC5" s="562"/>
-      <c r="AD5" s="560" t="s">
+      <c r="AB5" s="574"/>
+      <c r="AC5" s="575"/>
+      <c r="AD5" s="573" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="561"/>
-      <c r="AF5" s="562"/>
-      <c r="AG5" s="560" t="s">
+      <c r="AE5" s="574"/>
+      <c r="AF5" s="575"/>
+      <c r="AG5" s="573" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="561"/>
-      <c r="AI5" s="562"/>
-      <c r="AJ5" s="560" t="s">
+      <c r="AH5" s="574"/>
+      <c r="AI5" s="575"/>
+      <c r="AJ5" s="573" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="561"/>
-      <c r="AL5" s="562"/>
-      <c r="AM5" s="563" t="s">
+      <c r="AK5" s="574"/>
+      <c r="AL5" s="575"/>
+      <c r="AM5" s="576" t="s">
         <v>36</v>
       </c>
-      <c r="AN5" s="564"/>
-      <c r="AO5" s="565"/>
+      <c r="AN5" s="577"/>
+      <c r="AO5" s="578"/>
       <c r="AP5" s="404"/>
       <c r="AQ5" s="404"/>
       <c r="AR5" s="405"/>
@@ -11696,12 +11671,12 @@
         <v>oo</v>
       </c>
       <c r="AA7" s="543" t="str">
-        <f>AF17</f>
+        <f>AH17</f>
         <v>ㆨ</v>
       </c>
       <c r="AB7" s="436"/>
       <c r="AC7" s="550" t="str">
-        <f>AF18</f>
+        <f>AH18</f>
         <v>ir</v>
       </c>
       <c r="AD7" s="543" t="str">
@@ -11713,14 +11688,14 @@
         <f ca="1">AN44</f>
         <v>-n</v>
       </c>
-      <c r="AG7" s="569"/>
-      <c r="AH7" s="570"/>
+      <c r="AG7" s="571"/>
+      <c r="AH7" s="572"/>
       <c r="AI7" s="440"/>
-      <c r="AJ7" s="569"/>
-      <c r="AK7" s="570"/>
+      <c r="AJ7" s="571"/>
+      <c r="AK7" s="572"/>
       <c r="AL7" s="440"/>
-      <c r="AM7" s="569"/>
-      <c r="AN7" s="570"/>
+      <c r="AM7" s="571"/>
+      <c r="AN7" s="572"/>
       <c r="AO7" s="440"/>
       <c r="AP7" s="431"/>
       <c r="AQ7" s="431"/>
@@ -11801,61 +11776,61 @@
       <c r="A8" s="404"/>
       <c r="B8" s="404"/>
       <c r="C8" s="453"/>
-      <c r="D8" s="566" t="s">
+      <c r="D8" s="565" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="567"/>
-      <c r="F8" s="568"/>
-      <c r="G8" s="566" t="s">
+      <c r="E8" s="566"/>
+      <c r="F8" s="567"/>
+      <c r="G8" s="565" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="567"/>
-      <c r="I8" s="568"/>
-      <c r="J8" s="566" t="s">
+      <c r="H8" s="566"/>
+      <c r="I8" s="567"/>
+      <c r="J8" s="565" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="567"/>
-      <c r="L8" s="568"/>
-      <c r="M8" s="566" t="s">
+      <c r="K8" s="566"/>
+      <c r="L8" s="567"/>
+      <c r="M8" s="565" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="567"/>
-      <c r="O8" s="568"/>
-      <c r="P8" s="566" t="s">
+      <c r="N8" s="566"/>
+      <c r="O8" s="567"/>
+      <c r="P8" s="565" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="567"/>
-      <c r="R8" s="568"/>
-      <c r="S8" s="566" t="s">
+      <c r="Q8" s="566"/>
+      <c r="R8" s="567"/>
+      <c r="S8" s="565" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="567"/>
-      <c r="U8" s="568"/>
-      <c r="V8" s="560" t="s">
+      <c r="T8" s="566"/>
+      <c r="U8" s="567"/>
+      <c r="V8" s="573" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="561"/>
-      <c r="X8" s="562"/>
-      <c r="Y8" s="560" t="s">
+      <c r="W8" s="574"/>
+      <c r="X8" s="575"/>
+      <c r="Y8" s="573" t="s">
         <v>62</v>
       </c>
-      <c r="Z8" s="561"/>
-      <c r="AA8" s="562"/>
-      <c r="AB8" s="560" t="s">
+      <c r="Z8" s="574"/>
+      <c r="AA8" s="575"/>
+      <c r="AB8" s="573" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="561"/>
-      <c r="AD8" s="562"/>
-      <c r="AE8" s="560" t="s">
+      <c r="AC8" s="574"/>
+      <c r="AD8" s="575"/>
+      <c r="AE8" s="573" t="s">
         <v>64</v>
       </c>
-      <c r="AF8" s="561"/>
-      <c r="AG8" s="562"/>
-      <c r="AH8" s="563" t="s">
+      <c r="AF8" s="574"/>
+      <c r="AG8" s="575"/>
+      <c r="AH8" s="576" t="s">
         <v>65</v>
       </c>
-      <c r="AI8" s="564"/>
-      <c r="AJ8" s="565"/>
+      <c r="AI8" s="577"/>
+      <c r="AJ8" s="578"/>
       <c r="AK8" s="404"/>
       <c r="AL8" s="404"/>
       <c r="AM8" s="404"/>
@@ -12156,8 +12131,8 @@
         <f ca="1">AO44</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="569"/>
-      <c r="AI10" s="570"/>
+      <c r="AH10" s="571"/>
+      <c r="AI10" s="572"/>
       <c r="AJ10" s="440"/>
       <c r="AK10" s="431"/>
       <c r="AL10" s="431"/>
@@ -12244,56 +12219,56 @@
       <c r="B11" s="404"/>
       <c r="C11" s="404"/>
       <c r="D11" s="404"/>
-      <c r="E11" s="566" t="s">
+      <c r="E11" s="565" t="s">
         <v>568</v>
       </c>
-      <c r="F11" s="567"/>
-      <c r="G11" s="568"/>
-      <c r="H11" s="566" t="s">
+      <c r="F11" s="566"/>
+      <c r="G11" s="567"/>
+      <c r="H11" s="565" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="567"/>
-      <c r="J11" s="568"/>
-      <c r="K11" s="566" t="s">
+      <c r="I11" s="566"/>
+      <c r="J11" s="567"/>
+      <c r="K11" s="565" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="567"/>
-      <c r="M11" s="568"/>
-      <c r="N11" s="566" t="s">
+      <c r="L11" s="566"/>
+      <c r="M11" s="567"/>
+      <c r="N11" s="565" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="567"/>
-      <c r="P11" s="568"/>
-      <c r="Q11" s="566" t="s">
+      <c r="O11" s="566"/>
+      <c r="P11" s="567"/>
+      <c r="Q11" s="565" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="567"/>
-      <c r="S11" s="568"/>
-      <c r="T11" s="566" t="s">
+      <c r="R11" s="566"/>
+      <c r="S11" s="567"/>
+      <c r="T11" s="565" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="567"/>
-      <c r="V11" s="568"/>
-      <c r="W11" s="560" t="s">
+      <c r="U11" s="566"/>
+      <c r="V11" s="567"/>
+      <c r="W11" s="573" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="561"/>
-      <c r="Y11" s="562"/>
-      <c r="Z11" s="560" t="s">
+      <c r="X11" s="574"/>
+      <c r="Y11" s="575"/>
+      <c r="Z11" s="573" t="s">
         <v>709</v>
       </c>
-      <c r="AA11" s="561"/>
-      <c r="AB11" s="562"/>
-      <c r="AC11" s="560" t="s">
+      <c r="AA11" s="574"/>
+      <c r="AB11" s="575"/>
+      <c r="AC11" s="573" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" s="561"/>
-      <c r="AE11" s="562"/>
-      <c r="AF11" s="563" t="s">
+      <c r="AD11" s="574"/>
+      <c r="AE11" s="575"/>
+      <c r="AF11" s="576" t="s">
         <v>89</v>
       </c>
-      <c r="AG11" s="564"/>
-      <c r="AH11" s="565"/>
+      <c r="AG11" s="577"/>
+      <c r="AH11" s="578"/>
       <c r="AI11" s="404"/>
       <c r="AJ11" s="404"/>
       <c r="AK11" s="404"/>
@@ -13076,47 +13051,47 @@
       </c>
       <c r="C16" s="468"/>
       <c r="D16" s="469" t="str">
-        <f ca="1">D41</f>
+        <f t="shared" ref="D16:N16" ca="1" si="3">D41</f>
         <v>1</v>
       </c>
       <c r="E16" s="469" t="str">
-        <f ca="1">E41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>!</v>
       </c>
       <c r="F16" s="469" t="str">
-        <f ca="1">F41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>q</v>
       </c>
       <c r="G16" s="469" t="str">
-        <f ca="1">G41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>a</v>
       </c>
       <c r="H16" s="469" t="str">
-        <f ca="1">H41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I16" s="469" t="str">
-        <f ca="1">I41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>w</v>
       </c>
       <c r="J16" s="469" t="str">
-        <f ca="1">J41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
       <c r="K16" s="469" t="str">
-        <f ca="1">K41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>x</v>
       </c>
       <c r="L16" s="469" t="str">
-        <f ca="1">L41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>e</v>
       </c>
       <c r="M16" s="469" t="str">
-        <f ca="1">M41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>E</v>
       </c>
       <c r="N16" s="469" t="str">
-        <f ca="1">N41</f>
+        <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
       <c r="O16" s="469" t="s">
@@ -13182,27 +13157,27 @@
         <v>255</v>
       </c>
       <c r="AE16" s="470" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF16" s="470" t="s">
+        <v>660</v>
+      </c>
+      <c r="AG16" s="470" t="s">
         <v>509</v>
       </c>
-      <c r="AF16" s="470" t="s">
+      <c r="AH16" s="470" t="s">
         <v>139</v>
       </c>
-      <c r="AG16" s="469" t="str">
+      <c r="AI16" s="469" t="str">
         <f ca="1">AL41</f>
         <v>m</v>
       </c>
-      <c r="AH16" s="469" t="str">
+      <c r="AJ16" s="469" t="str">
         <f ca="1">AN41</f>
         <v>p</v>
       </c>
-      <c r="AI16" s="470" t="s">
+      <c r="AK16" s="470" t="s">
         <v>256</v>
-      </c>
-      <c r="AJ16" s="470" t="s">
-        <v>711</v>
-      </c>
-      <c r="AK16" s="470" t="s">
-        <v>660</v>
       </c>
       <c r="AL16" s="469" t="str">
         <f ca="1">AF41</f>
@@ -13253,7 +13228,7 @@
         <v>5</v>
       </c>
       <c r="AX16" s="469" t="str">
-        <f t="shared" ref="AX16" ca="1" si="3">BF41</f>
+        <f t="shared" ref="AX16" ca="1" si="4">BF41</f>
         <v>7</v>
       </c>
       <c r="AY16" s="402"/>
@@ -13292,7 +13267,7 @@
       </c>
       <c r="BL16" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL16" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI16) )</f>
-        <v>c</v>
+        <v>z</v>
       </c>
       <c r="BM16" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM16" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI16) )</f>
@@ -13463,31 +13438,31 @@
       </c>
       <c r="AE17" s="474" t="str" cm="1">
         <f t="array" ref="AE17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AE$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>ㆥ</v>
+        <v>ㆱ</v>
       </c>
       <c r="AF17" s="474" t="str" cm="1">
         <f t="array" ref="AF17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AF$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="AG17" s="474" t="str" cm="1">
+        <f t="array" ref="AG17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>ㆥ</v>
+      </c>
+      <c r="AH17" s="474" t="str" cm="1">
+        <f t="array" ref="AH17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>ㆨ</v>
       </c>
-      <c r="AG17" s="474" t="str" cm="1">
-        <f t="array" aca="1" ref="AG17" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AI17" s="474" t="str" cm="1">
+        <f t="array" aca="1" ref="AI17" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>ㆬ</v>
       </c>
-      <c r="AH17" s="474" t="str" cm="1">
-        <f t="array" aca="1" ref="AH17" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AJ17" s="474" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ17" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>ㄣ</v>
-      </c>
-      <c r="AI17" s="474" t="str" cm="1">
-        <f t="array" ref="AI17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>ㄥ</v>
-      </c>
-      <c r="AJ17" s="474" t="str" cm="1">
-        <f t="array" ref="AJ17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>ㆱ</v>
       </c>
       <c r="AK17" s="474" t="str" cm="1">
         <f t="array" ref="AK17" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AK$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>ㆰ</v>
+        <v>ㄥ</v>
       </c>
       <c r="AL17" s="474" t="str" cm="1">
         <f t="array" aca="1" ref="AL17" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$D$5:$D$51, MATCH(TRUE, EXACT(AL$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
@@ -13744,31 +13719,31 @@
       </c>
       <c r="AE18" s="558" t="str" cm="1">
         <f t="array" ref="AE18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AE$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>eN</v>
+        <v>om</v>
       </c>
       <c r="AF18" s="558" t="str" cm="1">
         <f t="array" ref="AF18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AF$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>am</v>
+      </c>
+      <c r="AG18" s="558" t="str" cm="1">
+        <f t="array" ref="AG18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>eN</v>
+      </c>
+      <c r="AH18" s="558" t="str" cm="1">
+        <f t="array" ref="AH18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>ir</v>
       </c>
-      <c r="AG18" s="558" t="str" cm="1">
-        <f t="array" aca="1" ref="AG18" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AI18" s="558" t="str" cm="1">
+        <f t="array" aca="1" ref="AI18" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>-m</v>
       </c>
-      <c r="AH18" s="558" t="str" cm="1">
-        <f t="array" aca="1" ref="AH18" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AJ18" s="558" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ18" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>-n</v>
-      </c>
-      <c r="AI18" s="558" t="str" cm="1">
-        <f t="array" ref="AI18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>-ng</v>
-      </c>
-      <c r="AJ18" s="558" t="str" cm="1">
-        <f t="array" ref="AJ18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>om</v>
       </c>
       <c r="AK18" s="558" t="str" cm="1">
         <f t="array" ref="AK18" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AK$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>am</v>
+        <v>-ng</v>
       </c>
       <c r="AL18" s="558" t="str" cm="1">
         <f t="array" aca="1" ref="AL18" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$E$5:$E$51, MATCH(TRUE, EXACT(AL$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
@@ -13859,7 +13834,7 @@
       </c>
       <c r="BL18" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL18" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI18) )</f>
-        <v>C</v>
+        <v>c</v>
       </c>
       <c r="BM18" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM18" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI18) )</f>
@@ -13970,7 +13945,7 @@
       </c>
       <c r="P19" s="478" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(P$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>c</v>
+        <v>z</v>
       </c>
       <c r="Q19" s="478" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(Q$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
@@ -13978,7 +13953,7 @@
       </c>
       <c r="R19" s="478" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(R$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>C</v>
+        <v>c</v>
       </c>
       <c r="S19" s="478" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(S$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
@@ -14030,31 +14005,31 @@
       </c>
       <c r="AE19" s="478" t="str" cm="1">
         <f t="array" ref="AE19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AE$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>E</v>
+        <v>}</v>
       </c>
       <c r="AF19" s="478" t="str" cm="1">
         <f t="array" ref="AF19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AF$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>{</v>
+      </c>
+      <c r="AG19" s="478" t="str" cm="1">
+        <f t="array" ref="AG19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+        <v>E</v>
+      </c>
+      <c r="AH19" s="478" t="str" cm="1">
+        <f t="array" ref="AH19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>X</v>
       </c>
-      <c r="AG19" s="478" t="str" cm="1">
-        <f t="array" aca="1" ref="AG19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AG$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AI19" s="478" t="str" cm="1">
+        <f t="array" aca="1" ref="AI19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>M</v>
       </c>
-      <c r="AH19" s="478" t="str" cm="1">
-        <f t="array" aca="1" ref="AH19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AH$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
+      <c r="AJ19" s="478" t="str" cm="1">
+        <f t="array" aca="1" ref="AJ19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
         <v>N</v>
-      </c>
-      <c r="AI19" s="478" t="str" cm="1">
-        <f t="array" ref="AI19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AI$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>W</v>
-      </c>
-      <c r="AJ19" s="478" t="str" cm="1">
-        <f t="array" ref="AJ19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AJ$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>}</v>
       </c>
       <c r="AK19" s="478" t="str" cm="1">
         <f t="array" ref="AK19" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AK$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
-        <v>{</v>
+        <v>W</v>
       </c>
       <c r="AL19" s="478" t="str" cm="1">
         <f t="array" aca="1" ref="AL19" ca="1" xml:space="preserve"> INDEX(注音符號字典編碼!$F$5:$F$51, MATCH(TRUE, EXACT(AL$16, 注音符號字典編碼!$C$5:$C$51), 0))</f>
@@ -14333,7 +14308,7 @@
       <c r="L21" s="484"/>
       <c r="M21" s="484" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:T19)</f>
-        <v>pbPmtTnlkgKwcjCsh</v>
+        <v>pbPmtTnlkgKwzjcsh</v>
       </c>
       <c r="N21" s="484"/>
       <c r="O21" s="484"/>
@@ -14565,7 +14540,7 @@
       </c>
       <c r="E23" s="490" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:AX19)</f>
-        <v>pbPmtTnlkgKwcjCshiIuUaAOQoeEXMNW}{yYxX@][123570</v>
+        <v>pbPmtTnlkgKwzjcshiIuUaAOQoe}{EXMNWyYxX@][123570</v>
       </c>
       <c r="F23" s="489"/>
       <c r="G23" s="489"/>
@@ -14698,7 +14673,7 @@
       </c>
       <c r="E24" s="494" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:AX16)</f>
-        <v>1!qa2wsxeEdgyYhncuUjJ8*iIk,&lt;omp/&gt;.9(lL0:; 43657</v>
+        <v>1!qa2wsxeEdgyYhncuUjJ8*iIk,&gt;.&lt;omp/9(lL0:; 43657</v>
       </c>
       <c r="F24" s="493"/>
       <c r="G24" s="493"/>
@@ -14736,7 +14711,7 @@
       </c>
       <c r="AN24" s="487">
         <f ca="1" xml:space="preserve"> FIND(AM24,  E24)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AO24" s="559" t="s">
         <v>716</v>
@@ -14833,7 +14808,7 @@
     <row r="25" spans="1:85" s="482" customFormat="1" ht="31.5" customHeight="1">
       <c r="B25" s="495" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E23 &amp; "|" &amp; E24 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKwcjCshiIuUaAOQoeEXMNW}{yYxX@][123570|1!qa2wsxeEdgyYhncuUjJ8*iIk,&lt;omp/&gt;.9(lL0:; 43657|</v>
+        <v>- xlit|pbPmtTnlkgKwzjcshiIuUaAOQoe}{EXMNWyYxX@][123570|1!qa2wsxeEdgyYhncuUjJ8*iIk,&gt;.&lt;omp/9(lL0:; 43657|</v>
       </c>
       <c r="C25" s="496"/>
       <c r="D25" s="496"/>
@@ -15328,7 +15303,7 @@
       </c>
       <c r="E29" s="500" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:AX16)</f>
-        <v>1!qa2wsxeEdgyYhncuUjJ8*iIk,&lt;omp/&gt;.9(lL0:; 43657</v>
+        <v>1!qa2wsxeEdgyYhncuUjJ8*iIk,&gt;.&lt;omp/9(lL0:; 43657</v>
       </c>
       <c r="F29" s="500"/>
       <c r="G29" s="500"/>
@@ -15474,7 +15449,7 @@
       </c>
       <c r="E30" s="503" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:AX17)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆥㆨㆬㄣㄥㆱㆰㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆱㆰㆥㆨㆬㄣㄥㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙</v>
       </c>
       <c r="F30" s="503"/>
       <c r="G30" s="503"/>
@@ -15602,7 +15577,7 @@
     <row r="31" spans="1:85" s="482" customFormat="1" ht="31.5" customHeight="1">
       <c r="B31" s="495" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E29 &amp; "|" &amp; E30 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEdgyYhncuUjJ8*iIk,&lt;omp/&gt;.9(lL0:; 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆥㆨㆬㄣㄥㆱㆰㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙|</v>
+        <v>- xlit|1!qa2wsxeEdgyYhncuUjJ8*iIk,&gt;.&lt;omp/9(lL0:; 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆱㆰㆥㆨㆬㄣㄥㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="C31" s="505"/>
       <c r="D31" s="505"/>
@@ -15667,23 +15642,23 @@
       </c>
       <c r="BJ31" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ31" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI31) )</f>
-        <v>ㆥ</v>
+        <v>ㆱ</v>
       </c>
       <c r="BK31" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK31" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI31) )</f>
-        <v>eN</v>
+        <v>om</v>
       </c>
       <c r="BL31" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL31" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI31) )</f>
-        <v>E</v>
+        <v>}</v>
       </c>
       <c r="BM31" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM31" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI31) )</f>
-        <v>&lt;</v>
+        <v>&gt;</v>
       </c>
       <c r="BO31" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"&lt;": { commit: "ㆥ" }</v>
+        <v>"&gt;": { commit: "ㆱ" }</v>
       </c>
       <c r="BQ31" s="159">
         <v>28</v>
@@ -15795,23 +15770,23 @@
       </c>
       <c r="BJ32" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ32" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI32) )</f>
-        <v>ㆨ</v>
+        <v>ㆰ</v>
       </c>
       <c r="BK32" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK32" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI32) )</f>
-        <v>ir</v>
+        <v>am</v>
       </c>
       <c r="BL32" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL32" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI32) )</f>
-        <v>X</v>
+        <v>{</v>
       </c>
       <c r="BM32" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM32" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI32) )</f>
-        <v>o</v>
+        <v>.</v>
       </c>
       <c r="BO32" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"o": { commit: "ㆨ" }</v>
+        <v>".": { commit: "ㆰ" }</v>
       </c>
       <c r="BQ32" s="159">
         <v>29</v>
@@ -15925,23 +15900,23 @@
       </c>
       <c r="BJ33" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI33) )</f>
-        <v>ㆬ</v>
+        <v>ㆥ</v>
       </c>
       <c r="BK33" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI33) )</f>
-        <v>-m</v>
+        <v>eN</v>
       </c>
       <c r="BL33" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI33) )</f>
-        <v>M</v>
+        <v>E</v>
       </c>
       <c r="BM33" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI33) )</f>
-        <v>m</v>
+        <v>&lt;</v>
       </c>
       <c r="BO33" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"m": { commit: "ㆬ" }</v>
+        <v>"&lt;": { commit: "ㆥ" }</v>
       </c>
       <c r="BQ33" s="159">
         <v>30</v>
@@ -16055,23 +16030,23 @@
       </c>
       <c r="BJ34" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ34" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI34) )</f>
-        <v>ㄣ</v>
+        <v>ㆨ</v>
       </c>
       <c r="BK34" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK34" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI34) )</f>
-        <v>-n</v>
+        <v>ir</v>
       </c>
       <c r="BL34" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL34" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI34) )</f>
-        <v>N</v>
+        <v>X</v>
       </c>
       <c r="BM34" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM34" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI34) )</f>
-        <v>p</v>
+        <v>o</v>
       </c>
       <c r="BO34" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"p": { commit: "ㄣ" }</v>
+        <v>"o": { commit: "ㆨ" }</v>
       </c>
       <c r="BQ34" s="159">
         <v>31</v>
@@ -16129,7 +16104,7 @@
       </c>
       <c r="E35" s="500" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:AX19)</f>
-        <v>pbPmtTnlkgKwcjCshiIuUaAOQoeEXMNW}{yYxX@][123570</v>
+        <v>pbPmtTnlkgKwzjcshiIuUaAOQoe}{EXMNWyYxX@][123570</v>
       </c>
       <c r="F35" s="500"/>
       <c r="G35" s="500"/>
@@ -16191,23 +16166,23 @@
       </c>
       <c r="BJ35" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ35" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI35) )</f>
-        <v>ㄥ</v>
+        <v>ㆬ</v>
       </c>
       <c r="BK35" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK35" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI35) )</f>
-        <v>-ng</v>
+        <v>-m</v>
       </c>
       <c r="BL35" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL35" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI35) )</f>
-        <v>W</v>
+        <v>M</v>
       </c>
       <c r="BM35" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM35" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI35) )</f>
-        <v>/</v>
+        <v>m</v>
       </c>
       <c r="BO35" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"/": { commit: "ㄥ" }</v>
+        <v>"m": { commit: "ㆬ" }</v>
       </c>
       <c r="BQ35" s="159">
         <v>32</v>
@@ -16265,7 +16240,7 @@
       </c>
       <c r="E36" s="503" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:AX17)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆥㆨㆬㄣㄥㆱㆰㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆱㆰㆥㆨㆬㄣㄥㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙</v>
       </c>
       <c r="F36" s="503"/>
       <c r="G36" s="503"/>
@@ -16327,23 +16302,23 @@
       </c>
       <c r="BJ36" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ36" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI36) )</f>
-        <v>ㆱ</v>
+        <v>ㄣ</v>
       </c>
       <c r="BK36" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK36" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI36) )</f>
-        <v>om</v>
+        <v>-n</v>
       </c>
       <c r="BL36" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL36" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI36) )</f>
-        <v>}</v>
+        <v>N</v>
       </c>
       <c r="BM36" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM36" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI36) )</f>
-        <v>&gt;</v>
+        <v>p</v>
       </c>
       <c r="BO36" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"&gt;": { commit: "ㆱ" }</v>
+        <v>"p": { commit: "ㄣ" }</v>
       </c>
       <c r="BQ36" s="159">
         <v>33</v>
@@ -16393,7 +16368,7 @@
     <row r="37" spans="2:85" s="482" customFormat="1" ht="31.5" customHeight="1">
       <c r="B37" s="495" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E35 &amp; "|" &amp; E36 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKwcjCshiIuUaAOQoeEXMNW}{yYxX@][123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆥㆨㆬㄣㄥㆱㆰㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙|</v>
+        <v>- xlit|pbPmtTnlkgKwzjcshiIuUaAOQoe}{EXMNWyYxX@][123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄫㄗㆡㄘㄙㄏㄧㆪㄨㆫㄚㆩㆦㆧㄜㄝㆱㆰㆥㆨㆬㄣㄥㄞㆮㄠㆯㄢㆲㄤˉˋ˪ˊ˫˙|</v>
       </c>
       <c r="C37" s="505"/>
       <c r="D37" s="505"/>
@@ -16458,23 +16433,23 @@
       </c>
       <c r="BJ37" s="442" t="str" cm="1">
         <f t="array" aca="1" ref="BJ37" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$17), COLUMN($C$17) +$BI37) )</f>
-        <v>ㆰ</v>
+        <v>ㄥ</v>
       </c>
       <c r="BK37" s="443" t="str" cm="1">
         <f t="array" aca="1" ref="BK37" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$18), COLUMN($C$18) +$BI37) )</f>
-        <v>am</v>
+        <v>-ng</v>
       </c>
       <c r="BL37" s="444" t="str" cm="1">
         <f t="array" aca="1" ref="BL37" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$19), COLUMN($C$19) +$BI37) )</f>
-        <v>{</v>
+        <v>W</v>
       </c>
       <c r="BM37" s="445" t="str" cm="1">
         <f t="array" aca="1" ref="BM37" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$16), COLUMN($C$16) +$BI37) )</f>
-        <v>.</v>
+        <v>/</v>
       </c>
       <c r="BO37" s="446" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>".": { commit: "ㆰ" }</v>
+        <v>"/": { commit: "ㄥ" }</v>
       </c>
       <c r="BQ37" s="159">
         <v>34</v>
@@ -19687,52 +19662,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -19743,6 +19672,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19757,7 +19732,6 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="2"/>
   <cols>
@@ -22120,7 +22094,6 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="25.5"/>
   <cols>
@@ -23491,33 +23464,33 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="602" t="str">
+      <c r="C11" s="605" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="602"/>
-      <c r="E11" s="602"/>
-      <c r="F11" s="602"/>
-      <c r="G11" s="602"/>
-      <c r="H11" s="602"/>
-      <c r="I11" s="602"/>
-      <c r="J11" s="602"/>
-      <c r="K11" s="602"/>
-      <c r="L11" s="602"/>
-      <c r="M11" s="602"/>
-      <c r="N11" s="602"/>
-      <c r="O11" s="602"/>
-      <c r="P11" s="602"/>
-      <c r="Q11" s="602"/>
-      <c r="R11" s="602"/>
-      <c r="S11" s="602"/>
-      <c r="T11" s="602"/>
-      <c r="U11" s="602"/>
-      <c r="V11" s="602"/>
-      <c r="W11" s="602"/>
-      <c r="X11" s="602"/>
-      <c r="Y11" s="602"/>
-      <c r="Z11" s="602"/>
+      <c r="D11" s="605"/>
+      <c r="E11" s="605"/>
+      <c r="F11" s="605"/>
+      <c r="G11" s="605"/>
+      <c r="H11" s="605"/>
+      <c r="I11" s="605"/>
+      <c r="J11" s="605"/>
+      <c r="K11" s="605"/>
+      <c r="L11" s="605"/>
+      <c r="M11" s="605"/>
+      <c r="N11" s="605"/>
+      <c r="O11" s="605"/>
+      <c r="P11" s="605"/>
+      <c r="Q11" s="605"/>
+      <c r="R11" s="605"/>
+      <c r="S11" s="605"/>
+      <c r="T11" s="605"/>
+      <c r="U11" s="605"/>
+      <c r="V11" s="605"/>
+      <c r="W11" s="605"/>
+      <c r="X11" s="605"/>
+      <c r="Y11" s="605"/>
+      <c r="Z11" s="605"/>
     </row>
     <row r="12" spans="1:47" s="57" customFormat="1" ht="23.25">
       <c r="B12" s="66" t="str">
@@ -23559,34 +23532,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="57" customFormat="1" ht="23.25">
-      <c r="B15" s="601" t="str">
+      <c r="B15" s="606" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="601"/>
-      <c r="D15" s="601"/>
-      <c r="E15" s="601"/>
-      <c r="F15" s="601"/>
-      <c r="G15" s="601"/>
-      <c r="H15" s="601"/>
-      <c r="I15" s="601"/>
-      <c r="J15" s="601"/>
-      <c r="K15" s="601"/>
-      <c r="L15" s="601"/>
-      <c r="M15" s="601"/>
-      <c r="N15" s="601"/>
-      <c r="O15" s="601"/>
-      <c r="P15" s="601"/>
-      <c r="Q15" s="601"/>
-      <c r="R15" s="601"/>
-      <c r="S15" s="601"/>
-      <c r="T15" s="601"/>
-      <c r="U15" s="601"/>
-      <c r="V15" s="601"/>
-      <c r="W15" s="601"/>
-      <c r="X15" s="601"/>
-      <c r="Y15" s="601"/>
-      <c r="Z15" s="601"/>
+      <c r="C15" s="606"/>
+      <c r="D15" s="606"/>
+      <c r="E15" s="606"/>
+      <c r="F15" s="606"/>
+      <c r="G15" s="606"/>
+      <c r="H15" s="606"/>
+      <c r="I15" s="606"/>
+      <c r="J15" s="606"/>
+      <c r="K15" s="606"/>
+      <c r="L15" s="606"/>
+      <c r="M15" s="606"/>
+      <c r="N15" s="606"/>
+      <c r="O15" s="606"/>
+      <c r="P15" s="606"/>
+      <c r="Q15" s="606"/>
+      <c r="R15" s="606"/>
+      <c r="S15" s="606"/>
+      <c r="T15" s="606"/>
+      <c r="U15" s="606"/>
+      <c r="V15" s="606"/>
+      <c r="W15" s="606"/>
+      <c r="X15" s="606"/>
+      <c r="Y15" s="606"/>
+      <c r="Z15" s="606"/>
     </row>
     <row r="16" spans="1:47" s="57" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="57" customFormat="1" ht="38.25">
@@ -23600,33 +23573,33 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="602" t="str">
+      <c r="C19" s="605" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="602"/>
-      <c r="E19" s="602"/>
-      <c r="F19" s="602"/>
-      <c r="G19" s="602"/>
-      <c r="H19" s="602"/>
-      <c r="I19" s="602"/>
-      <c r="J19" s="602"/>
-      <c r="K19" s="602"/>
-      <c r="L19" s="602"/>
-      <c r="M19" s="602"/>
-      <c r="N19" s="602"/>
-      <c r="O19" s="602"/>
-      <c r="P19" s="602"/>
-      <c r="Q19" s="602"/>
-      <c r="R19" s="602"/>
-      <c r="S19" s="602"/>
-      <c r="T19" s="602"/>
-      <c r="U19" s="602"/>
-      <c r="V19" s="602"/>
-      <c r="W19" s="602"/>
-      <c r="X19" s="602"/>
-      <c r="Y19" s="602"/>
-      <c r="Z19" s="602"/>
+      <c r="D19" s="605"/>
+      <c r="E19" s="605"/>
+      <c r="F19" s="605"/>
+      <c r="G19" s="605"/>
+      <c r="H19" s="605"/>
+      <c r="I19" s="605"/>
+      <c r="J19" s="605"/>
+      <c r="K19" s="605"/>
+      <c r="L19" s="605"/>
+      <c r="M19" s="605"/>
+      <c r="N19" s="605"/>
+      <c r="O19" s="605"/>
+      <c r="P19" s="605"/>
+      <c r="Q19" s="605"/>
+      <c r="R19" s="605"/>
+      <c r="S19" s="605"/>
+      <c r="T19" s="605"/>
+      <c r="U19" s="605"/>
+      <c r="V19" s="605"/>
+      <c r="W19" s="605"/>
+      <c r="X19" s="605"/>
+      <c r="Y19" s="605"/>
+      <c r="Z19" s="605"/>
     </row>
     <row r="20" spans="2:26" s="57" customFormat="1" ht="23.25">
       <c r="B20" s="64" t="str">
@@ -23668,34 +23641,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="57" customFormat="1" ht="23.25">
-      <c r="B23" s="601" t="str">
+      <c r="B23" s="606" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="601"/>
-      <c r="D23" s="601"/>
-      <c r="E23" s="601"/>
-      <c r="F23" s="601"/>
-      <c r="G23" s="601"/>
-      <c r="H23" s="601"/>
-      <c r="I23" s="601"/>
-      <c r="J23" s="601"/>
-      <c r="K23" s="601"/>
-      <c r="L23" s="601"/>
-      <c r="M23" s="601"/>
-      <c r="N23" s="601"/>
-      <c r="O23" s="601"/>
-      <c r="P23" s="601"/>
-      <c r="Q23" s="601"/>
-      <c r="R23" s="601"/>
-      <c r="S23" s="601"/>
-      <c r="T23" s="601"/>
-      <c r="U23" s="601"/>
-      <c r="V23" s="601"/>
-      <c r="W23" s="601"/>
-      <c r="X23" s="601"/>
-      <c r="Y23" s="601"/>
-      <c r="Z23" s="601"/>
+      <c r="C23" s="606"/>
+      <c r="D23" s="606"/>
+      <c r="E23" s="606"/>
+      <c r="F23" s="606"/>
+      <c r="G23" s="606"/>
+      <c r="H23" s="606"/>
+      <c r="I23" s="606"/>
+      <c r="J23" s="606"/>
+      <c r="K23" s="606"/>
+      <c r="L23" s="606"/>
+      <c r="M23" s="606"/>
+      <c r="N23" s="606"/>
+      <c r="O23" s="606"/>
+      <c r="P23" s="606"/>
+      <c r="Q23" s="606"/>
+      <c r="R23" s="606"/>
+      <c r="S23" s="606"/>
+      <c r="T23" s="606"/>
+      <c r="U23" s="606"/>
+      <c r="V23" s="606"/>
+      <c r="W23" s="606"/>
+      <c r="X23" s="606"/>
+      <c r="Y23" s="606"/>
+      <c r="Z23" s="606"/>
     </row>
     <row r="24" spans="2:26" s="57" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="57" customFormat="1" ht="38.25">
@@ -23709,33 +23682,33 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="602" t="str">
+      <c r="C27" s="605" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="602"/>
-      <c r="E27" s="602"/>
-      <c r="F27" s="602"/>
-      <c r="G27" s="602"/>
-      <c r="H27" s="602"/>
-      <c r="I27" s="602"/>
-      <c r="J27" s="602"/>
-      <c r="K27" s="602"/>
-      <c r="L27" s="602"/>
-      <c r="M27" s="602"/>
-      <c r="N27" s="602"/>
-      <c r="O27" s="602"/>
-      <c r="P27" s="602"/>
-      <c r="Q27" s="602"/>
-      <c r="R27" s="602"/>
-      <c r="S27" s="602"/>
-      <c r="T27" s="602"/>
-      <c r="U27" s="602"/>
-      <c r="V27" s="602"/>
-      <c r="W27" s="602"/>
-      <c r="X27" s="602"/>
-      <c r="Y27" s="602"/>
-      <c r="Z27" s="602"/>
+      <c r="D27" s="605"/>
+      <c r="E27" s="605"/>
+      <c r="F27" s="605"/>
+      <c r="G27" s="605"/>
+      <c r="H27" s="605"/>
+      <c r="I27" s="605"/>
+      <c r="J27" s="605"/>
+      <c r="K27" s="605"/>
+      <c r="L27" s="605"/>
+      <c r="M27" s="605"/>
+      <c r="N27" s="605"/>
+      <c r="O27" s="605"/>
+      <c r="P27" s="605"/>
+      <c r="Q27" s="605"/>
+      <c r="R27" s="605"/>
+      <c r="S27" s="605"/>
+      <c r="T27" s="605"/>
+      <c r="U27" s="605"/>
+      <c r="V27" s="605"/>
+      <c r="W27" s="605"/>
+      <c r="X27" s="605"/>
+      <c r="Y27" s="605"/>
+      <c r="Z27" s="605"/>
     </row>
     <row r="28" spans="2:26" s="57" customFormat="1" ht="23.25">
       <c r="B28" s="64" t="str">
@@ -23777,34 +23750,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="57" customFormat="1" ht="23.25">
-      <c r="B31" s="601" t="str">
+      <c r="B31" s="606" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="601"/>
-      <c r="D31" s="601"/>
-      <c r="E31" s="601"/>
-      <c r="F31" s="601"/>
-      <c r="G31" s="601"/>
-      <c r="H31" s="601"/>
-      <c r="I31" s="601"/>
-      <c r="J31" s="601"/>
-      <c r="K31" s="601"/>
-      <c r="L31" s="601"/>
-      <c r="M31" s="601"/>
-      <c r="N31" s="601"/>
-      <c r="O31" s="601"/>
-      <c r="P31" s="601"/>
-      <c r="Q31" s="601"/>
-      <c r="R31" s="601"/>
-      <c r="S31" s="601"/>
-      <c r="T31" s="601"/>
-      <c r="U31" s="601"/>
-      <c r="V31" s="601"/>
-      <c r="W31" s="601"/>
-      <c r="X31" s="601"/>
-      <c r="Y31" s="601"/>
-      <c r="Z31" s="601"/>
+      <c r="C31" s="606"/>
+      <c r="D31" s="606"/>
+      <c r="E31" s="606"/>
+      <c r="F31" s="606"/>
+      <c r="G31" s="606"/>
+      <c r="H31" s="606"/>
+      <c r="I31" s="606"/>
+      <c r="J31" s="606"/>
+      <c r="K31" s="606"/>
+      <c r="L31" s="606"/>
+      <c r="M31" s="606"/>
+      <c r="N31" s="606"/>
+      <c r="O31" s="606"/>
+      <c r="P31" s="606"/>
+      <c r="Q31" s="606"/>
+      <c r="R31" s="606"/>
+      <c r="S31" s="606"/>
+      <c r="T31" s="606"/>
+      <c r="U31" s="606"/>
+      <c r="V31" s="606"/>
+      <c r="W31" s="606"/>
+      <c r="X31" s="606"/>
+      <c r="Y31" s="606"/>
+      <c r="Z31" s="606"/>
     </row>
     <row r="32" spans="2:26" s="57" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="59" customFormat="1">
@@ -24104,17 +24077,17 @@
     <row r="39" spans="1:47" s="57" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24128,7 +24101,6 @@
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -24661,7 +24633,6 @@
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BF31" sqref="BF31"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
   <cols>
@@ -25580,36 +25551,36 @@
       <c r="F8" s="302" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="581" t="s">
+      <c r="G8" s="583" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="582"/>
-      <c r="I8" s="583"/>
-      <c r="J8" s="584" t="s">
+      <c r="H8" s="584"/>
+      <c r="I8" s="585"/>
+      <c r="J8" s="600" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="585"/>
-      <c r="L8" s="586"/>
-      <c r="M8" s="584" t="s">
+      <c r="K8" s="601"/>
+      <c r="L8" s="602"/>
+      <c r="M8" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="585"/>
-      <c r="O8" s="586"/>
+      <c r="N8" s="601"/>
+      <c r="O8" s="602"/>
       <c r="P8" s="607" t="s">
         <v>453</v>
       </c>
       <c r="Q8" s="608"/>
       <c r="R8" s="609"/>
-      <c r="S8" s="584" t="s">
+      <c r="S8" s="600" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="585"/>
-      <c r="U8" s="586"/>
-      <c r="V8" s="584" t="s">
+      <c r="T8" s="601"/>
+      <c r="U8" s="602"/>
+      <c r="V8" s="600" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="585"/>
-      <c r="X8" s="586"/>
+      <c r="W8" s="601"/>
+      <c r="X8" s="602"/>
       <c r="Y8" s="304" t="s">
         <v>107</v>
       </c>
@@ -25628,21 +25599,21 @@
       <c r="AD8" s="305" t="s">
         <v>671</v>
       </c>
-      <c r="AE8" s="587" t="s">
+      <c r="AE8" s="591" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="588"/>
-      <c r="AG8" s="589"/>
-      <c r="AH8" s="590" t="s">
+      <c r="AF8" s="592"/>
+      <c r="AG8" s="593"/>
+      <c r="AH8" s="586" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="591"/>
-      <c r="AJ8" s="592"/>
-      <c r="AK8" s="590" t="s">
+      <c r="AI8" s="587"/>
+      <c r="AJ8" s="588"/>
+      <c r="AK8" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="591"/>
-      <c r="AM8" s="592"/>
+      <c r="AL8" s="587"/>
+      <c r="AM8" s="588"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -25699,38 +25670,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="605" t="s">
+      <c r="J9" s="610" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="598"/>
+      <c r="K9" s="599"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="605" t="s">
+      <c r="M9" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="598"/>
+      <c r="N9" s="599"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="597" t="s">
+      <c r="P9" s="598" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="606"/>
+      <c r="Q9" s="611"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="605" t="s">
+      <c r="S9" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="598"/>
+      <c r="T9" s="599"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="597" t="s">
+      <c r="V9" s="598" t="s">
         <v>673</v>
       </c>
-      <c r="W9" s="606"/>
+      <c r="W9" s="611"/>
       <c r="X9" s="6" t="s">
         <v>493</v>
       </c>
@@ -25764,8 +25735,8 @@
       <c r="AH9" s="33"/>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="599"/>
-      <c r="AL9" s="600"/>
+      <c r="AK9" s="589"/>
+      <c r="AL9" s="590"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -25819,16 +25790,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="581" t="s">
+      <c r="E10" s="583" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="582"/>
-      <c r="G10" s="583"/>
-      <c r="H10" s="581" t="s">
+      <c r="F10" s="584"/>
+      <c r="G10" s="585"/>
+      <c r="H10" s="583" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="582"/>
-      <c r="J10" s="583"/>
+      <c r="I10" s="584"/>
+      <c r="J10" s="585"/>
       <c r="K10" s="303" t="s">
         <v>44</v>
       </c>
@@ -25838,16 +25809,16 @@
       <c r="M10" s="302" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="581" t="s">
+      <c r="N10" s="583" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="582"/>
-      <c r="P10" s="583"/>
-      <c r="Q10" s="581" t="s">
+      <c r="O10" s="584"/>
+      <c r="P10" s="585"/>
+      <c r="Q10" s="583" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="582"/>
-      <c r="S10" s="583"/>
+      <c r="R10" s="584"/>
+      <c r="S10" s="585"/>
       <c r="T10" s="303" t="s">
         <v>106</v>
       </c>
@@ -25875,31 +25846,31 @@
       <c r="AB10" s="305" t="s">
         <v>669</v>
       </c>
-      <c r="AC10" s="587" t="s">
+      <c r="AC10" s="591" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="588"/>
-      <c r="AE10" s="589"/>
-      <c r="AF10" s="587" t="s">
+      <c r="AD10" s="592"/>
+      <c r="AE10" s="593"/>
+      <c r="AF10" s="591" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="588"/>
-      <c r="AH10" s="589"/>
-      <c r="AI10" s="587" t="s">
+      <c r="AG10" s="592"/>
+      <c r="AH10" s="593"/>
+      <c r="AI10" s="591" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="588"/>
-      <c r="AK10" s="589"/>
-      <c r="AL10" s="587" t="s">
+      <c r="AJ10" s="592"/>
+      <c r="AK10" s="593"/>
+      <c r="AL10" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="588"/>
-      <c r="AN10" s="589"/>
-      <c r="AO10" s="590" t="s">
+      <c r="AM10" s="592"/>
+      <c r="AN10" s="593"/>
+      <c r="AO10" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="591"/>
-      <c r="AQ10" s="592"/>
+      <c r="AP10" s="587"/>
+      <c r="AQ10" s="588"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="38"/>
@@ -26019,14 +25990,14 @@
       <c r="AH11" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="AI11" s="599"/>
-      <c r="AJ11" s="600"/>
+      <c r="AI11" s="589"/>
+      <c r="AJ11" s="590"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="599"/>
-      <c r="AM11" s="600"/>
+      <c r="AL11" s="589"/>
+      <c r="AM11" s="590"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="599"/>
-      <c r="AP11" s="600"/>
+      <c r="AO11" s="589"/>
+      <c r="AP11" s="590"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -26072,36 +26043,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="581" t="s">
+      <c r="F12" s="583" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="582"/>
-      <c r="H12" s="583"/>
-      <c r="I12" s="581" t="s">
+      <c r="G12" s="584"/>
+      <c r="H12" s="585"/>
+      <c r="I12" s="583" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="582"/>
-      <c r="K12" s="583"/>
-      <c r="L12" s="581" t="s">
+      <c r="J12" s="584"/>
+      <c r="K12" s="585"/>
+      <c r="L12" s="583" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="582"/>
-      <c r="N12" s="583"/>
-      <c r="O12" s="581" t="s">
+      <c r="M12" s="584"/>
+      <c r="N12" s="585"/>
+      <c r="O12" s="583" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="582"/>
-      <c r="Q12" s="583"/>
-      <c r="R12" s="581" t="s">
+      <c r="P12" s="584"/>
+      <c r="Q12" s="585"/>
+      <c r="R12" s="583" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="582"/>
-      <c r="T12" s="583"/>
-      <c r="U12" s="581" t="s">
+      <c r="S12" s="584"/>
+      <c r="T12" s="585"/>
+      <c r="U12" s="583" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="582"/>
-      <c r="W12" s="583"/>
+      <c r="V12" s="584"/>
+      <c r="W12" s="585"/>
       <c r="X12" s="304" t="s">
         <v>117</v>
       </c>
@@ -26111,11 +26082,11 @@
       <c r="Z12" s="305" t="s">
         <v>369</v>
       </c>
-      <c r="AA12" s="587" t="s">
+      <c r="AA12" s="591" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="588"/>
-      <c r="AC12" s="589"/>
+      <c r="AB12" s="592"/>
+      <c r="AC12" s="593"/>
       <c r="AD12" s="304" t="s">
         <v>112</v>
       </c>
@@ -26125,16 +26096,16 @@
       <c r="AF12" s="305" t="s">
         <v>672</v>
       </c>
-      <c r="AG12" s="587" t="s">
+      <c r="AG12" s="591" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="588"/>
-      <c r="AI12" s="589"/>
-      <c r="AJ12" s="590" t="s">
+      <c r="AH12" s="592"/>
+      <c r="AI12" s="593"/>
+      <c r="AJ12" s="586" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="591"/>
-      <c r="AL12" s="592"/>
+      <c r="AK12" s="587"/>
+      <c r="AL12" s="588"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -26263,8 +26234,8 @@
       <c r="AI13" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="AJ13" s="599"/>
-      <c r="AK13" s="600"/>
+      <c r="AJ13" s="589"/>
+      <c r="AK13" s="590"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -26319,41 +26290,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="581" t="s">
+      <c r="G14" s="583" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="582"/>
-      <c r="I14" s="583"/>
-      <c r="J14" s="581" t="s">
+      <c r="H14" s="584"/>
+      <c r="I14" s="585"/>
+      <c r="J14" s="583" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="582"/>
-      <c r="L14" s="583"/>
-      <c r="M14" s="581" t="s">
+      <c r="K14" s="584"/>
+      <c r="L14" s="585"/>
+      <c r="M14" s="583" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="582"/>
-      <c r="O14" s="583"/>
-      <c r="P14" s="581" t="s">
+      <c r="N14" s="584"/>
+      <c r="O14" s="585"/>
+      <c r="P14" s="583" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="582"/>
-      <c r="R14" s="583"/>
-      <c r="S14" s="581" t="s">
+      <c r="Q14" s="584"/>
+      <c r="R14" s="585"/>
+      <c r="S14" s="583" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="582"/>
-      <c r="U14" s="583"/>
-      <c r="V14" s="581" t="s">
+      <c r="T14" s="584"/>
+      <c r="U14" s="585"/>
+      <c r="V14" s="583" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="582"/>
-      <c r="X14" s="583"/>
-      <c r="Y14" s="587" t="s">
+      <c r="W14" s="584"/>
+      <c r="X14" s="585"/>
+      <c r="Y14" s="591" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="588"/>
-      <c r="AA14" s="589"/>
+      <c r="Z14" s="592"/>
+      <c r="AA14" s="593"/>
       <c r="AB14" s="304" t="s">
         <v>110</v>
       </c>
@@ -26363,16 +26334,16 @@
       <c r="AD14" s="305" t="s">
         <v>670</v>
       </c>
-      <c r="AE14" s="587" t="s">
+      <c r="AE14" s="591" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="588"/>
-      <c r="AG14" s="589"/>
-      <c r="AH14" s="590" t="s">
+      <c r="AF14" s="592"/>
+      <c r="AG14" s="593"/>
+      <c r="AH14" s="586" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="591"/>
-      <c r="AJ14" s="592"/>
+      <c r="AI14" s="587"/>
+      <c r="AJ14" s="588"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -30216,11 +30187,37 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:N9"/>
@@ -30231,37 +30228,11 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30279,7 +30250,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="W13" sqref="W13:AB46"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="14.25"/>
   <cols>
@@ -30293,61 +30263,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="136" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="616">
+      <c r="C2" s="637">
         <v>1</v>
       </c>
-      <c r="D2" s="617"/>
-      <c r="E2" s="618"/>
-      <c r="F2" s="616">
+      <c r="D2" s="638"/>
+      <c r="E2" s="639"/>
+      <c r="F2" s="637">
         <v>2</v>
       </c>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="640">
+      <c r="G2" s="638"/>
+      <c r="H2" s="639"/>
+      <c r="I2" s="627">
         <v>3</v>
       </c>
-      <c r="J2" s="641"/>
-      <c r="K2" s="642"/>
-      <c r="L2" s="640">
+      <c r="J2" s="628"/>
+      <c r="K2" s="629"/>
+      <c r="L2" s="627">
         <v>4</v>
       </c>
-      <c r="M2" s="641"/>
-      <c r="N2" s="642"/>
-      <c r="O2" s="640">
+      <c r="M2" s="628"/>
+      <c r="N2" s="629"/>
+      <c r="O2" s="627">
         <v>5</v>
       </c>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="642"/>
-      <c r="R2" s="640">
+      <c r="P2" s="628"/>
+      <c r="Q2" s="629"/>
+      <c r="R2" s="627">
         <v>6</v>
       </c>
-      <c r="S2" s="641"/>
-      <c r="T2" s="642"/>
-      <c r="U2" s="640">
+      <c r="S2" s="628"/>
+      <c r="T2" s="629"/>
+      <c r="U2" s="627">
         <v>7</v>
       </c>
-      <c r="V2" s="641"/>
-      <c r="W2" s="642"/>
-      <c r="X2" s="619">
+      <c r="V2" s="628"/>
+      <c r="W2" s="629"/>
+      <c r="X2" s="618">
         <v>8</v>
       </c>
-      <c r="Y2" s="620"/>
-      <c r="Z2" s="621"/>
-      <c r="AA2" s="619">
+      <c r="Y2" s="613"/>
+      <c r="Z2" s="614"/>
+      <c r="AA2" s="618">
         <v>9</v>
       </c>
-      <c r="AB2" s="620"/>
-      <c r="AC2" s="621"/>
-      <c r="AD2" s="619">
+      <c r="AB2" s="613"/>
+      <c r="AC2" s="614"/>
+      <c r="AD2" s="618">
         <v>0</v>
       </c>
-      <c r="AE2" s="620"/>
-      <c r="AF2" s="621"/>
-      <c r="AG2" s="644" t="s">
+      <c r="AE2" s="613"/>
+      <c r="AF2" s="614"/>
+      <c r="AG2" s="612" t="s">
         <v>353</v>
       </c>
-      <c r="AH2" s="620"/>
-      <c r="AI2" s="621"/>
+      <c r="AH2" s="613"/>
+      <c r="AI2" s="614"/>
       <c r="AJ2" s="123"/>
       <c r="AK2" s="123"/>
       <c r="AL2" s="123"/>
@@ -30356,56 +30326,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="613" t="str">
+      <c r="C3" s="634" t="str">
         <f>C14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="614"/>
-      <c r="E3" s="615"/>
-      <c r="F3" s="613" t="str">
+      <c r="D3" s="635"/>
+      <c r="E3" s="636"/>
+      <c r="F3" s="634" t="str">
         <f>G14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="614"/>
-      <c r="H3" s="615"/>
-      <c r="I3" s="637" t="s">
+      <c r="G3" s="635"/>
+      <c r="H3" s="636"/>
+      <c r="I3" s="631" t="s">
         <v>351</v>
       </c>
-      <c r="J3" s="638"/>
-      <c r="K3" s="639"/>
-      <c r="L3" s="637" t="s">
+      <c r="J3" s="632"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="631" t="s">
         <v>350</v>
       </c>
-      <c r="M3" s="638"/>
-      <c r="N3" s="639"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="639"/>
-      <c r="R3" s="634" t="s">
+      <c r="M3" s="632"/>
+      <c r="N3" s="633"/>
+      <c r="O3" s="631"/>
+      <c r="P3" s="632"/>
+      <c r="Q3" s="633"/>
+      <c r="R3" s="640" t="s">
         <v>349</v>
       </c>
-      <c r="S3" s="635"/>
-      <c r="T3" s="636"/>
-      <c r="U3" s="637" t="s">
+      <c r="S3" s="641"/>
+      <c r="T3" s="642"/>
+      <c r="U3" s="631" t="s">
         <v>348</v>
       </c>
-      <c r="V3" s="638"/>
-      <c r="W3" s="639"/>
-      <c r="X3" s="630" t="str">
+      <c r="V3" s="632"/>
+      <c r="W3" s="633"/>
+      <c r="X3" s="619" t="str">
         <f>C20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="631"/>
-      <c r="Z3" s="632"/>
-      <c r="AA3" s="630"/>
-      <c r="AB3" s="631"/>
-      <c r="AC3" s="632"/>
-      <c r="AD3" s="630"/>
-      <c r="AE3" s="631"/>
-      <c r="AF3" s="632"/>
-      <c r="AG3" s="645"/>
-      <c r="AH3" s="646"/>
-      <c r="AI3" s="647"/>
+      <c r="Y3" s="620"/>
+      <c r="Z3" s="621"/>
+      <c r="AA3" s="619"/>
+      <c r="AB3" s="620"/>
+      <c r="AC3" s="621"/>
+      <c r="AD3" s="619"/>
+      <c r="AE3" s="620"/>
+      <c r="AF3" s="621"/>
+      <c r="AG3" s="615"/>
+      <c r="AH3" s="616"/>
+      <c r="AI3" s="617"/>
       <c r="AQ3" s="137" t="s">
         <v>347</v>
       </c>
@@ -30414,115 +30384,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="136" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="616" t="s">
+      <c r="D4" s="637" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="617"/>
-      <c r="F4" s="618"/>
-      <c r="G4" s="616" t="s">
+      <c r="E4" s="638"/>
+      <c r="F4" s="639"/>
+      <c r="G4" s="637" t="s">
         <v>281</v>
       </c>
-      <c r="H4" s="617"/>
-      <c r="I4" s="618"/>
-      <c r="J4" s="616" t="s">
+      <c r="H4" s="638"/>
+      <c r="I4" s="639"/>
+      <c r="J4" s="637" t="s">
         <v>345</v>
       </c>
-      <c r="K4" s="617"/>
-      <c r="L4" s="618"/>
-      <c r="M4" s="616" t="s">
+      <c r="K4" s="638"/>
+      <c r="L4" s="639"/>
+      <c r="M4" s="637" t="s">
         <v>344</v>
       </c>
-      <c r="N4" s="617"/>
-      <c r="O4" s="618"/>
-      <c r="P4" s="616" t="s">
+      <c r="N4" s="638"/>
+      <c r="O4" s="639"/>
+      <c r="P4" s="637" t="s">
         <v>343</v>
       </c>
-      <c r="Q4" s="617"/>
-      <c r="R4" s="618"/>
-      <c r="S4" s="616" t="s">
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
+      <c r="S4" s="637" t="s">
         <v>342</v>
       </c>
-      <c r="T4" s="617"/>
-      <c r="U4" s="618"/>
-      <c r="V4" s="619" t="s">
+      <c r="T4" s="638"/>
+      <c r="U4" s="639"/>
+      <c r="V4" s="618" t="s">
         <v>341</v>
       </c>
-      <c r="W4" s="620"/>
-      <c r="X4" s="621"/>
-      <c r="Y4" s="619" t="s">
+      <c r="W4" s="613"/>
+      <c r="X4" s="614"/>
+      <c r="Y4" s="618" t="s">
         <v>340</v>
       </c>
-      <c r="Z4" s="620"/>
-      <c r="AA4" s="621"/>
-      <c r="AB4" s="619" t="s">
+      <c r="Z4" s="613"/>
+      <c r="AA4" s="614"/>
+      <c r="AB4" s="618" t="s">
         <v>337</v>
       </c>
-      <c r="AC4" s="620"/>
-      <c r="AD4" s="621"/>
-      <c r="AE4" s="619" t="s">
+      <c r="AC4" s="613"/>
+      <c r="AD4" s="614"/>
+      <c r="AE4" s="618" t="s">
         <v>339</v>
       </c>
-      <c r="AF4" s="620"/>
-      <c r="AG4" s="621"/>
+      <c r="AF4" s="613"/>
+      <c r="AG4" s="614"/>
       <c r="AJ4" s="123"/>
       <c r="AK4" s="123"/>
       <c r="AL4" s="123"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="613" t="str">
+      <c r="D5" s="634" t="str">
         <f>D14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="614"/>
-      <c r="F5" s="615"/>
-      <c r="G5" s="613" t="str">
+      <c r="E5" s="635"/>
+      <c r="F5" s="636"/>
+      <c r="G5" s="634" t="str">
         <f>H14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="614"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="613" t="str">
+      <c r="H5" s="635"/>
+      <c r="I5" s="636"/>
+      <c r="J5" s="634" t="str">
         <f>K14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="614"/>
-      <c r="L5" s="615"/>
-      <c r="M5" s="613"/>
-      <c r="N5" s="614"/>
-      <c r="O5" s="615"/>
-      <c r="P5" s="610" t="str">
+      <c r="K5" s="635"/>
+      <c r="L5" s="636"/>
+      <c r="M5" s="634"/>
+      <c r="N5" s="635"/>
+      <c r="O5" s="636"/>
+      <c r="P5" s="643" t="str">
         <f>E14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="611"/>
-      <c r="R5" s="612"/>
-      <c r="S5" s="613" t="str">
+      <c r="Q5" s="644"/>
+      <c r="R5" s="645"/>
+      <c r="S5" s="634" t="str">
         <f>P14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="614"/>
-      <c r="U5" s="615"/>
-      <c r="V5" s="630" t="str">
+      <c r="T5" s="635"/>
+      <c r="U5" s="636"/>
+      <c r="V5" s="619" t="str">
         <f>E20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="631"/>
-      <c r="X5" s="632"/>
-      <c r="Y5" s="630" t="str">
+      <c r="W5" s="620"/>
+      <c r="X5" s="621"/>
+      <c r="Y5" s="619" t="str">
         <f>K20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="631"/>
-      <c r="AA5" s="632"/>
-      <c r="AB5" s="630"/>
-      <c r="AC5" s="631"/>
-      <c r="AD5" s="632"/>
-      <c r="AE5" s="622" t="str">
+      <c r="Z5" s="620"/>
+      <c r="AA5" s="621"/>
+      <c r="AB5" s="619"/>
+      <c r="AC5" s="620"/>
+      <c r="AD5" s="621"/>
+      <c r="AE5" s="624" t="str">
         <f>O20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="623"/>
-      <c r="AG5" s="624"/>
+      <c r="AF5" s="625"/>
+      <c r="AG5" s="626"/>
       <c r="AQ5" s="137" t="s">
         <v>338</v>
       </c>
@@ -30532,109 +30502,109 @@
     </row>
     <row r="6" spans="2:44" s="136" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="138"/>
-      <c r="E6" s="616" t="s">
+      <c r="E6" s="637" t="s">
         <v>336</v>
       </c>
-      <c r="F6" s="617"/>
-      <c r="G6" s="618"/>
-      <c r="H6" s="616" t="s">
+      <c r="F6" s="638"/>
+      <c r="G6" s="639"/>
+      <c r="H6" s="637" t="s">
         <v>335</v>
       </c>
-      <c r="I6" s="617"/>
-      <c r="J6" s="618"/>
-      <c r="K6" s="616" t="s">
+      <c r="I6" s="638"/>
+      <c r="J6" s="639"/>
+      <c r="K6" s="637" t="s">
         <v>334</v>
       </c>
-      <c r="L6" s="617"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="616" t="s">
+      <c r="L6" s="638"/>
+      <c r="M6" s="639"/>
+      <c r="N6" s="637" t="s">
         <v>333</v>
       </c>
-      <c r="O6" s="617"/>
-      <c r="P6" s="618"/>
-      <c r="Q6" s="616" t="s">
+      <c r="O6" s="638"/>
+      <c r="P6" s="639"/>
+      <c r="Q6" s="637" t="s">
         <v>332</v>
       </c>
-      <c r="R6" s="617"/>
-      <c r="S6" s="618"/>
-      <c r="T6" s="616" t="s">
+      <c r="R6" s="638"/>
+      <c r="S6" s="639"/>
+      <c r="T6" s="637" t="s">
         <v>331</v>
       </c>
-      <c r="U6" s="617"/>
-      <c r="V6" s="618"/>
-      <c r="W6" s="619" t="s">
+      <c r="U6" s="638"/>
+      <c r="V6" s="639"/>
+      <c r="W6" s="618" t="s">
         <v>330</v>
       </c>
-      <c r="X6" s="620"/>
-      <c r="Y6" s="621"/>
-      <c r="Z6" s="619" t="s">
+      <c r="X6" s="613"/>
+      <c r="Y6" s="614"/>
+      <c r="Z6" s="618" t="s">
         <v>329</v>
       </c>
-      <c r="AA6" s="620"/>
-      <c r="AB6" s="621"/>
-      <c r="AC6" s="619" t="s">
+      <c r="AA6" s="613"/>
+      <c r="AB6" s="614"/>
+      <c r="AC6" s="618" t="s">
         <v>328</v>
       </c>
-      <c r="AD6" s="620"/>
-      <c r="AE6" s="621"/>
-      <c r="AF6" s="619" t="s">
+      <c r="AD6" s="613"/>
+      <c r="AE6" s="614"/>
+      <c r="AF6" s="618" t="s">
         <v>327</v>
       </c>
-      <c r="AG6" s="620"/>
-      <c r="AH6" s="621"/>
+      <c r="AG6" s="613"/>
+      <c r="AH6" s="614"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="627" t="str">
+      <c r="E7" s="646" t="str">
         <f>F14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="628"/>
-      <c r="G7" s="629"/>
-      <c r="H7" s="613" t="str">
+      <c r="F7" s="647"/>
+      <c r="G7" s="648"/>
+      <c r="H7" s="634" t="str">
         <f>I14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="614"/>
-      <c r="J7" s="615"/>
-      <c r="K7" s="613" t="str">
+      <c r="I7" s="635"/>
+      <c r="J7" s="636"/>
+      <c r="K7" s="634" t="str">
         <f>L14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="614"/>
-      <c r="M7" s="615"/>
-      <c r="N7" s="613"/>
-      <c r="O7" s="614"/>
-      <c r="P7" s="615"/>
-      <c r="Q7" s="633" t="str">
+      <c r="L7" s="635"/>
+      <c r="M7" s="636"/>
+      <c r="N7" s="634"/>
+      <c r="O7" s="635"/>
+      <c r="P7" s="636"/>
+      <c r="Q7" s="649" t="str">
         <f>M14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="611"/>
-      <c r="S7" s="612"/>
-      <c r="T7" s="613" t="str">
+      <c r="R7" s="644"/>
+      <c r="S7" s="645"/>
+      <c r="T7" s="634" t="str">
         <f>Q14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="614"/>
-      <c r="V7" s="615"/>
-      <c r="W7" s="630" t="str">
+      <c r="U7" s="635"/>
+      <c r="V7" s="636"/>
+      <c r="W7" s="619" t="str">
         <f>G20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="631"/>
-      <c r="Y7" s="632"/>
-      <c r="Z7" s="630" t="str">
+      <c r="X7" s="620"/>
+      <c r="Y7" s="621"/>
+      <c r="Z7" s="619" t="str">
         <f>M20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="631"/>
-      <c r="AB7" s="632"/>
-      <c r="AC7" s="630"/>
-      <c r="AD7" s="631"/>
-      <c r="AE7" s="632"/>
-      <c r="AF7" s="649"/>
-      <c r="AG7" s="631"/>
-      <c r="AH7" s="632"/>
+      <c r="AA7" s="620"/>
+      <c r="AB7" s="621"/>
+      <c r="AC7" s="619"/>
+      <c r="AD7" s="620"/>
+      <c r="AE7" s="621"/>
+      <c r="AF7" s="623"/>
+      <c r="AG7" s="620"/>
+      <c r="AH7" s="621"/>
       <c r="AQ7" s="137" t="s">
         <v>326</v>
       </c>
@@ -30643,112 +30613,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="136" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="616" t="s">
+      <c r="F8" s="637" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="617"/>
-      <c r="H8" s="618"/>
-      <c r="I8" s="616" t="s">
+      <c r="G8" s="638"/>
+      <c r="H8" s="639"/>
+      <c r="I8" s="637" t="s">
         <v>323</v>
       </c>
-      <c r="J8" s="617"/>
-      <c r="K8" s="618"/>
-      <c r="L8" s="616" t="s">
+      <c r="J8" s="638"/>
+      <c r="K8" s="639"/>
+      <c r="L8" s="637" t="s">
         <v>322</v>
       </c>
-      <c r="M8" s="617"/>
-      <c r="N8" s="618"/>
-      <c r="O8" s="616" t="s">
+      <c r="M8" s="638"/>
+      <c r="N8" s="639"/>
+      <c r="O8" s="637" t="s">
         <v>321</v>
       </c>
-      <c r="P8" s="617"/>
-      <c r="Q8" s="618"/>
-      <c r="R8" s="616" t="s">
+      <c r="P8" s="638"/>
+      <c r="Q8" s="639"/>
+      <c r="R8" s="637" t="s">
         <v>320</v>
       </c>
-      <c r="S8" s="617"/>
-      <c r="T8" s="618"/>
-      <c r="U8" s="616" t="s">
+      <c r="S8" s="638"/>
+      <c r="T8" s="639"/>
+      <c r="U8" s="637" t="s">
         <v>279</v>
       </c>
-      <c r="V8" s="617"/>
-      <c r="W8" s="618"/>
-      <c r="X8" s="619" t="s">
+      <c r="V8" s="638"/>
+      <c r="W8" s="639"/>
+      <c r="X8" s="618" t="s">
         <v>319</v>
       </c>
-      <c r="Y8" s="620"/>
-      <c r="Z8" s="621"/>
-      <c r="AA8" s="619" t="s">
+      <c r="Y8" s="613"/>
+      <c r="Z8" s="614"/>
+      <c r="AA8" s="618" t="s">
         <v>318</v>
       </c>
-      <c r="AB8" s="620"/>
-      <c r="AC8" s="621"/>
-      <c r="AD8" s="619" t="s">
+      <c r="AB8" s="613"/>
+      <c r="AC8" s="614"/>
+      <c r="AD8" s="618" t="s">
         <v>317</v>
       </c>
-      <c r="AE8" s="620"/>
-      <c r="AF8" s="621"/>
-      <c r="AG8" s="648" t="s">
+      <c r="AE8" s="613"/>
+      <c r="AF8" s="614"/>
+      <c r="AG8" s="622" t="s">
         <v>316</v>
       </c>
-      <c r="AH8" s="620"/>
-      <c r="AI8" s="621"/>
+      <c r="AH8" s="613"/>
+      <c r="AI8" s="614"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="613"/>
-      <c r="G9" s="625"/>
-      <c r="H9" s="626"/>
-      <c r="I9" s="613" t="str">
+      <c r="F9" s="634"/>
+      <c r="G9" s="650"/>
+      <c r="H9" s="651"/>
+      <c r="I9" s="634" t="str">
         <f>J14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="614"/>
-      <c r="K9" s="615"/>
-      <c r="L9" s="613" t="str">
+      <c r="J9" s="635"/>
+      <c r="K9" s="636"/>
+      <c r="L9" s="634" t="str">
         <f>O14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="614"/>
-      <c r="N9" s="615"/>
-      <c r="O9" s="627" t="str">
+      <c r="M9" s="635"/>
+      <c r="N9" s="636"/>
+      <c r="O9" s="646" t="str">
         <f>N14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="628"/>
-      <c r="Q9" s="629"/>
-      <c r="R9" s="610" t="str">
+      <c r="P9" s="647"/>
+      <c r="Q9" s="648"/>
+      <c r="R9" s="643" t="str">
         <f>R14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="611"/>
-      <c r="T9" s="612"/>
-      <c r="U9" s="613" t="str">
+      <c r="S9" s="644"/>
+      <c r="T9" s="645"/>
+      <c r="U9" s="634" t="str">
         <f>S14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="614"/>
-      <c r="W9" s="615"/>
-      <c r="X9" s="622" t="str">
+      <c r="V9" s="635"/>
+      <c r="W9" s="636"/>
+      <c r="X9" s="624" t="str">
         <f>N20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="623"/>
-      <c r="Z9" s="624"/>
-      <c r="AA9" s="630" t="str">
+      <c r="Y9" s="625"/>
+      <c r="Z9" s="626"/>
+      <c r="AA9" s="619" t="str">
         <f>I20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="631"/>
-      <c r="AC9" s="632"/>
-      <c r="AD9" s="643" t="str">
+      <c r="AB9" s="620"/>
+      <c r="AC9" s="621"/>
+      <c r="AD9" s="630" t="str">
         <f>P20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="623"/>
-      <c r="AF9" s="624"/>
-      <c r="AG9" s="630"/>
-      <c r="AH9" s="631"/>
-      <c r="AI9" s="632"/>
+      <c r="AE9" s="625"/>
+      <c r="AF9" s="626"/>
+      <c r="AG9" s="619"/>
+      <c r="AH9" s="620"/>
+      <c r="AI9" s="621"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="136"/>
@@ -31189,20 +31159,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -31219,58 +31227,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31287,7 +31257,6 @@
   <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -34876,7 +34845,6 @@
   <dimension ref="A1:BM59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="32.25"/>
   <cols>
@@ -35852,36 +35820,36 @@
         <v>519</v>
       </c>
       <c r="F8" s="302"/>
-      <c r="G8" s="581" t="s">
+      <c r="G8" s="583" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="582"/>
-      <c r="I8" s="583"/>
-      <c r="J8" s="584" t="s">
+      <c r="H8" s="584"/>
+      <c r="I8" s="585"/>
+      <c r="J8" s="600" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="585"/>
-      <c r="L8" s="586"/>
-      <c r="M8" s="584" t="s">
+      <c r="K8" s="601"/>
+      <c r="L8" s="602"/>
+      <c r="M8" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="585"/>
-      <c r="O8" s="586"/>
+      <c r="N8" s="601"/>
+      <c r="O8" s="602"/>
       <c r="P8" s="303"/>
       <c r="Q8" s="325" t="s">
         <v>573</v>
       </c>
       <c r="R8" s="302"/>
-      <c r="S8" s="584" t="s">
+      <c r="S8" s="600" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="585"/>
-      <c r="U8" s="586"/>
-      <c r="V8" s="584" t="s">
+      <c r="T8" s="601"/>
+      <c r="U8" s="602"/>
+      <c r="V8" s="600" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="585"/>
-      <c r="X8" s="586"/>
+      <c r="W8" s="601"/>
+      <c r="X8" s="602"/>
       <c r="Y8" s="304"/>
       <c r="Z8" s="300" t="s">
         <v>521</v>
@@ -35892,21 +35860,21 @@
         <v>520</v>
       </c>
       <c r="AD8" s="305"/>
-      <c r="AE8" s="587" t="s">
+      <c r="AE8" s="591" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="588"/>
-      <c r="AG8" s="589"/>
-      <c r="AH8" s="590" t="s">
+      <c r="AF8" s="592"/>
+      <c r="AG8" s="593"/>
+      <c r="AH8" s="586" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="591"/>
-      <c r="AJ8" s="592"/>
-      <c r="AK8" s="590" t="s">
+      <c r="AI8" s="587"/>
+      <c r="AJ8" s="588"/>
+      <c r="AK8" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="591"/>
-      <c r="AM8" s="592"/>
+      <c r="AL8" s="587"/>
+      <c r="AM8" s="588"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -35984,19 +35952,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="593" t="str">
+      <c r="J9" s="594" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="594"/>
+      <c r="K9" s="595"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="595" t="str">
+      <c r="M9" s="596" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="596"/>
+      <c r="N9" s="597"/>
       <c r="O9" s="332" t="s">
         <v>654</v>
       </c>
@@ -36012,19 +35980,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="595" t="str">
+      <c r="S9" s="596" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="596"/>
+      <c r="T9" s="597"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="597" t="str">
+      <c r="V9" s="598" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="598"/>
+      <c r="W9" s="599"/>
       <c r="X9" s="332" t="s">
         <v>655</v>
       </c>
@@ -36073,8 +36041,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="599"/>
-      <c r="AL9" s="600"/>
+      <c r="AK9" s="589"/>
+      <c r="AL9" s="590"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -36141,31 +36109,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="581" t="s">
+      <c r="E10" s="583" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="582"/>
-      <c r="G10" s="583"/>
-      <c r="H10" s="581" t="s">
+      <c r="F10" s="584"/>
+      <c r="G10" s="585"/>
+      <c r="H10" s="583" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="582"/>
-      <c r="J10" s="583"/>
+      <c r="I10" s="584"/>
+      <c r="J10" s="585"/>
       <c r="K10" s="303"/>
       <c r="L10" s="299" t="s">
         <v>510</v>
       </c>
       <c r="M10" s="302"/>
-      <c r="N10" s="581" t="s">
+      <c r="N10" s="583" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="582"/>
-      <c r="P10" s="583"/>
-      <c r="Q10" s="581" t="s">
+      <c r="O10" s="584"/>
+      <c r="P10" s="585"/>
+      <c r="Q10" s="583" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="582"/>
-      <c r="S10" s="583"/>
+      <c r="R10" s="584"/>
+      <c r="S10" s="585"/>
       <c r="T10" s="303"/>
       <c r="U10" s="299" t="s">
         <v>208</v>
@@ -36181,31 +36149,31 @@
         <v>379</v>
       </c>
       <c r="AB10" s="305"/>
-      <c r="AC10" s="587" t="s">
+      <c r="AC10" s="591" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="588"/>
-      <c r="AE10" s="589"/>
-      <c r="AF10" s="587" t="s">
+      <c r="AD10" s="592"/>
+      <c r="AE10" s="593"/>
+      <c r="AF10" s="591" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="588"/>
-      <c r="AH10" s="589"/>
-      <c r="AI10" s="587" t="s">
+      <c r="AG10" s="592"/>
+      <c r="AH10" s="593"/>
+      <c r="AI10" s="591" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="588"/>
-      <c r="AK10" s="589"/>
-      <c r="AL10" s="587" t="s">
+      <c r="AJ10" s="592"/>
+      <c r="AK10" s="593"/>
+      <c r="AL10" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="588"/>
-      <c r="AN10" s="589"/>
-      <c r="AO10" s="590" t="s">
+      <c r="AM10" s="592"/>
+      <c r="AN10" s="593"/>
+      <c r="AO10" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="591"/>
-      <c r="AQ10" s="592"/>
+      <c r="AP10" s="587"/>
+      <c r="AQ10" s="588"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="152" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -36383,14 +36351,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="599"/>
-      <c r="AJ11" s="600"/>
+      <c r="AI11" s="589"/>
+      <c r="AJ11" s="590"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="599"/>
-      <c r="AM11" s="600"/>
+      <c r="AL11" s="589"/>
+      <c r="AM11" s="590"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="599"/>
-      <c r="AP11" s="600"/>
+      <c r="AO11" s="589"/>
+      <c r="AP11" s="590"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="152" cm="1">
@@ -36451,61 +36419,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="581" t="s">
+      <c r="F12" s="583" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="582"/>
-      <c r="H12" s="583"/>
-      <c r="I12" s="581" t="s">
+      <c r="G12" s="584"/>
+      <c r="H12" s="585"/>
+      <c r="I12" s="583" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="582"/>
-      <c r="K12" s="583"/>
-      <c r="L12" s="581" t="s">
+      <c r="J12" s="584"/>
+      <c r="K12" s="585"/>
+      <c r="L12" s="583" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="582"/>
-      <c r="N12" s="583"/>
-      <c r="O12" s="581" t="s">
+      <c r="M12" s="584"/>
+      <c r="N12" s="585"/>
+      <c r="O12" s="583" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="582"/>
-      <c r="Q12" s="583"/>
-      <c r="R12" s="581" t="s">
+      <c r="P12" s="584"/>
+      <c r="Q12" s="585"/>
+      <c r="R12" s="583" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="582"/>
-      <c r="T12" s="583"/>
-      <c r="U12" s="581" t="s">
+      <c r="S12" s="584"/>
+      <c r="T12" s="585"/>
+      <c r="U12" s="583" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="582"/>
-      <c r="W12" s="583"/>
+      <c r="V12" s="584"/>
+      <c r="W12" s="585"/>
       <c r="X12" s="304"/>
       <c r="Y12" s="300" t="s">
         <v>506</v>
       </c>
       <c r="Z12" s="305"/>
-      <c r="AA12" s="587" t="s">
+      <c r="AA12" s="591" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="588"/>
-      <c r="AC12" s="589"/>
+      <c r="AB12" s="592"/>
+      <c r="AC12" s="593"/>
       <c r="AD12" s="304"/>
       <c r="AE12" s="300" t="s">
         <v>488</v>
       </c>
       <c r="AF12" s="305"/>
-      <c r="AG12" s="587" t="s">
+      <c r="AG12" s="591" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="588"/>
-      <c r="AI12" s="589"/>
-      <c r="AJ12" s="590" t="s">
+      <c r="AH12" s="592"/>
+      <c r="AI12" s="593"/>
+      <c r="AJ12" s="586" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="591"/>
-      <c r="AL12" s="592"/>
+      <c r="AK12" s="587"/>
+      <c r="AL12" s="588"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -36692,8 +36660,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="599"/>
-      <c r="AK13" s="600"/>
+      <c r="AJ13" s="589"/>
+      <c r="AK13" s="590"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -36763,56 +36731,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="581" t="s">
+      <c r="G14" s="583" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="582"/>
-      <c r="I14" s="583"/>
-      <c r="J14" s="581" t="s">
+      <c r="H14" s="584"/>
+      <c r="I14" s="585"/>
+      <c r="J14" s="583" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="582"/>
-      <c r="L14" s="583"/>
-      <c r="M14" s="581" t="s">
+      <c r="K14" s="584"/>
+      <c r="L14" s="585"/>
+      <c r="M14" s="583" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="582"/>
-      <c r="O14" s="583"/>
-      <c r="P14" s="581" t="s">
+      <c r="N14" s="584"/>
+      <c r="O14" s="585"/>
+      <c r="P14" s="583" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="582"/>
-      <c r="R14" s="583"/>
-      <c r="S14" s="581" t="s">
+      <c r="Q14" s="584"/>
+      <c r="R14" s="585"/>
+      <c r="S14" s="583" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="582"/>
-      <c r="U14" s="583"/>
-      <c r="V14" s="581" t="s">
+      <c r="T14" s="584"/>
+      <c r="U14" s="585"/>
+      <c r="V14" s="583" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="582"/>
-      <c r="X14" s="583"/>
-      <c r="Y14" s="587" t="s">
+      <c r="W14" s="584"/>
+      <c r="X14" s="585"/>
+      <c r="Y14" s="591" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="588"/>
-      <c r="AA14" s="589"/>
+      <c r="Z14" s="592"/>
+      <c r="AA14" s="593"/>
       <c r="AB14" s="304"/>
       <c r="AC14" s="300" t="s">
         <v>522</v>
       </c>
       <c r="AD14" s="305"/>
-      <c r="AE14" s="587" t="s">
+      <c r="AE14" s="591" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="588"/>
-      <c r="AG14" s="589"/>
-      <c r="AH14" s="590" t="s">
+      <c r="AF14" s="592"/>
+      <c r="AG14" s="593"/>
+      <c r="AH14" s="586" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="591"/>
-      <c r="AJ14" s="592"/>
+      <c r="AI14" s="587"/>
+      <c r="AJ14" s="588"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -40804,16 +40772,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -40830,24 +40806,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40865,7 +40833,6 @@
   <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -44228,7 +44195,6 @@
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -47969,7 +47935,6 @@
   <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -50736,7 +50701,6 @@
   <dimension ref="A1:AU57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -54250,7 +54214,6 @@
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
@@ -57990,9 +57953,6 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25"/>
   <cols>
@@ -58980,7 +58940,7 @@
         <v>166</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H17" s="252">
         <f t="shared" si="2"/>
@@ -59044,7 +59004,7 @@
         <v>569</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="H18" s="254">
         <f t="shared" si="2"/>
@@ -59575,7 +59535,7 @@
       </c>
       <c r="L26" s="353" t="str" cm="1">
         <f t="array" ref="L26" xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH(TRUE, EXACT($I26, $C$5:$C$62),0)), "")</f>
-        <v>c</v>
+        <v>z</v>
       </c>
       <c r="N26" s="254">
         <f t="shared" si="3"/>
@@ -59639,7 +59599,7 @@
       </c>
       <c r="L27" s="354" t="str" cm="1">
         <f t="array" ref="L27" xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH(TRUE, EXACT($I27, $C$5:$C$62),0)), "")</f>
-        <v>C</v>
+        <v>c</v>
       </c>
       <c r="N27" s="254">
         <f t="shared" si="3"/>
@@ -60121,20 +60081,20 @@
       <c r="X34" s="374"/>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="650">
+      <c r="B35" s="152">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="654" t="s">
+      <c r="C35" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="651" t="s">
+      <c r="D35" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="655" t="s">
+      <c r="E35" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="F35" s="653" t="s">
+      <c r="F35" s="90" t="s">
         <v>456</v>
       </c>
       <c r="H35" s="254">
@@ -60195,10 +60155,10 @@
       <c r="D36" s="143" t="s">
         <v>738</v>
       </c>
-      <c r="E36" s="656" t="s">
+      <c r="E36" s="560" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="657" t="s">
+      <c r="F36" s="561" t="s">
         <v>484</v>
       </c>
       <c r="H36" s="256">
@@ -60249,19 +60209,19 @@
       <c r="X36" s="374"/>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="650">
+      <c r="B37" s="152">
         <v>28</v>
       </c>
-      <c r="C37" s="654">
+      <c r="C37" s="91">
         <v>0</v>
       </c>
-      <c r="D37" s="651" t="s">
+      <c r="D37" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="652" t="s">
+      <c r="E37" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="F37" s="653" t="s">
+      <c r="F37" s="90" t="s">
         <v>678</v>
       </c>
       <c r="H37" s="252">
@@ -60312,19 +60272,19 @@
       <c r="X37" s="374"/>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="650">
+      <c r="B38" s="152">
         <v>27</v>
       </c>
-      <c r="C38" s="654">
+      <c r="C38" s="91">
         <v>9</v>
       </c>
-      <c r="D38" s="651" t="s">
+      <c r="D38" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="652" t="s">
+      <c r="E38" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="653" t="s">
+      <c r="F38" s="90" t="s">
         <v>207</v>
       </c>
       <c r="H38" s="254">
@@ -60375,19 +60335,19 @@
       <c r="X38" s="374"/>
     </row>
     <row r="39" spans="2:24">
-      <c r="B39" s="650">
+      <c r="B39" s="152">
         <v>43</v>
       </c>
-      <c r="C39" s="654" t="s">
+      <c r="C39" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="651" t="s">
+      <c r="D39" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="652" t="s">
+      <c r="E39" s="100" t="s">
         <v>746</v>
       </c>
-      <c r="F39" s="653" t="s">
+      <c r="F39" s="90" t="s">
         <v>208</v>
       </c>
       <c r="H39" s="254">
@@ -60438,19 +60398,19 @@
       <c r="X39" s="374"/>
     </row>
     <row r="40" spans="2:24">
-      <c r="B40" s="650">
+      <c r="B40" s="152">
         <v>29</v>
       </c>
-      <c r="C40" s="654" t="s">
+      <c r="C40" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="651" t="s">
+      <c r="D40" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="652" t="s">
+      <c r="E40" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="F40" s="653" t="s">
+      <c r="F40" s="90" t="s">
         <v>249</v>
       </c>
       <c r="H40" s="256">
@@ -60501,19 +60461,19 @@
       <c r="X40" s="374"/>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="650">
+      <c r="B41" s="152">
         <v>44</v>
       </c>
-      <c r="C41" s="654" t="s">
+      <c r="C41" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="651" t="s">
+      <c r="D41" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="652" t="s">
+      <c r="E41" s="100" t="s">
         <v>747</v>
       </c>
-      <c r="F41" s="653" t="s">
+      <c r="F41" s="90" t="s">
         <v>512</v>
       </c>
       <c r="H41" s="252">
@@ -60564,33 +60524,33 @@
       <c r="X41" s="374"/>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="650">
+      <c r="B42" s="152">
         <v>45</v>
       </c>
-      <c r="C42" s="658" t="s">
+      <c r="C42" s="358" t="s">
         <v>660</v>
       </c>
-      <c r="D42" s="651" t="s">
+      <c r="D42" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="652" t="s">
+      <c r="E42" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="F42" s="653" t="s">
+      <c r="F42" s="90" t="s">
         <v>687</v>
       </c>
       <c r="H42" s="254">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="I42" s="654" t="s">
+      <c r="I42" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="J42" s="651" t="str" cm="1">
+      <c r="J42" s="141" t="str" cm="1">
         <f t="array" ref="J42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$62, MATCH(TRUE, EXACT($I42, $C$5:$C$62),0)), "")</f>
         <v>ㄣ</v>
       </c>
-      <c r="K42" s="652" t="str" cm="1">
+      <c r="K42" s="100" t="str" cm="1">
         <f t="array" ref="K42" xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH(TRUE, EXACT($I42, $C$5:$C$62),0)), "")</f>
         <v>-n</v>
       </c>
@@ -60602,14 +60562,14 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="O42" s="654" t="s">
+      <c r="O42" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="P42" s="651" t="str" cm="1">
+      <c r="P42" s="141" t="str" cm="1">
         <f t="array" ref="P42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$62, MATCH(TRUE, EXACT($O42, $C$5:$C$62),0)), "")</f>
         <v/>
       </c>
-      <c r="Q42" s="652" t="str" cm="1">
+      <c r="Q42" s="100" t="str" cm="1">
         <f t="array" ref="Q42" xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH(TRUE, EXACT($O42, $C$5:$C$62),0)), "")</f>
         <v/>
       </c>
@@ -60627,33 +60587,33 @@
       <c r="X42" s="374"/>
     </row>
     <row r="43" spans="2:24">
-      <c r="B43" s="650">
+      <c r="B43" s="152">
         <v>46</v>
       </c>
-      <c r="C43" s="658" t="s">
+      <c r="C43" s="358" t="s">
         <v>711</v>
       </c>
-      <c r="D43" s="651" t="s">
+      <c r="D43" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="652" t="s">
+      <c r="E43" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="653" t="s">
+      <c r="F43" s="90" t="s">
         <v>688</v>
       </c>
       <c r="H43" s="254">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I43" s="654" t="s">
+      <c r="I43" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="J43" s="651" t="str" cm="1">
+      <c r="J43" s="141" t="str" cm="1">
         <f t="array" ref="J43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$62, MATCH(TRUE, EXACT($I43, $C$5:$C$62),0)), "")</f>
         <v>ㄤ</v>
       </c>
-      <c r="K43" s="652" t="str" cm="1">
+      <c r="K43" s="100" t="str" cm="1">
         <f t="array" ref="K43" xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH(TRUE, EXACT($I43, $C$5:$C$62),0)), "")</f>
         <v>ang</v>
       </c>
@@ -60665,14 +60625,14 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="O43" s="658" t="s">
+      <c r="O43" s="358" t="s">
         <v>689</v>
       </c>
-      <c r="P43" s="651" t="str" cm="1">
+      <c r="P43" s="141" t="str" cm="1">
         <f t="array" ref="P43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$62, MATCH(TRUE, EXACT($O43, $C$5:$C$62),0)), "")</f>
         <v>ㆲ</v>
       </c>
-      <c r="Q43" s="652" t="str" cm="1">
+      <c r="Q43" s="100" t="str" cm="1">
         <f t="array" ref="Q43" xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH(TRUE, EXACT($O43, $C$5:$C$62),0)), "")</f>
         <v>ong</v>
       </c>
@@ -60698,19 +60658,19 @@
       </c>
     </row>
     <row r="44" spans="2:24">
-      <c r="B44" s="650">
+      <c r="B44" s="152">
         <v>25</v>
       </c>
-      <c r="C44" s="658" t="s">
+      <c r="C44" s="358" t="s">
         <v>491</v>
       </c>
-      <c r="D44" s="651" t="s">
+      <c r="D44" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="652" t="s">
+      <c r="E44" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="F44" s="653" t="s">
+      <c r="F44" s="90" t="s">
         <v>661</v>
       </c>
       <c r="H44" s="256">
@@ -60769,19 +60729,19 @@
       </c>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="650">
+      <c r="B45" s="152">
         <v>47</v>
       </c>
-      <c r="C45" s="658" t="s">
+      <c r="C45" s="358" t="s">
         <v>689</v>
       </c>
-      <c r="D45" s="651" t="s">
+      <c r="D45" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="652" t="s">
+      <c r="E45" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="F45" s="653" t="s">
+      <c r="F45" s="90" t="s">
         <v>664</v>
       </c>
       <c r="H45" s="254">
@@ -61200,11 +61160,11 @@
       <c r="O51" s="91"/>
       <c r="P51" s="141"/>
       <c r="Q51" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P51, $D$5:$D$62,0)), "")</f>
+        <f t="shared" ref="Q51:Q59" si="4" xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P51, $D$5:$D$62,0)), "")</f>
         <v/>
       </c>
       <c r="R51" s="92" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P51, $D$5:$D$62,0)), "")</f>
+        <f t="shared" ref="R51:R59" si="5" xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P51, $D$5:$D$62,0)), "")</f>
         <v/>
       </c>
     </row>
@@ -61224,28 +61184,28 @@
       <c r="O52" s="91"/>
       <c r="P52" s="141"/>
       <c r="Q52" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P52, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R52" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P52, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="650">
+      <c r="B53" s="152">
         <v>26</v>
       </c>
-      <c r="C53" s="654" t="s">
+      <c r="C53" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="651" t="s">
+      <c r="D53" s="141" t="s">
         <v>738</v>
       </c>
-      <c r="E53" s="655" t="s">
+      <c r="E53" s="104" t="s">
         <v>731</v>
       </c>
-      <c r="F53" s="653" t="s">
+      <c r="F53" s="90" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="14">
@@ -61263,28 +61223,28 @@
       <c r="O53" s="91"/>
       <c r="P53" s="141"/>
       <c r="Q53" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P53, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R53" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P53, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="650">
+      <c r="B54" s="152">
         <v>48</v>
       </c>
-      <c r="C54" s="654" t="s">
+      <c r="C54" s="91" t="s">
         <v>668</v>
       </c>
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="652" t="s">
+      <c r="E54" s="100" t="s">
         <v>668</v>
       </c>
-      <c r="F54" s="653" t="s">
+      <c r="F54" s="90" t="s">
         <v>668</v>
       </c>
       <c r="H54" s="14">
@@ -61302,24 +61262,24 @@
       <c r="O54" s="91"/>
       <c r="P54" s="141"/>
       <c r="Q54" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P54, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R54" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P54, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="650">
+      <c r="B55" s="152">
         <v>49</v>
       </c>
-      <c r="C55" s="654"/>
-      <c r="D55" s="651" t="s">
+      <c r="C55" s="91"/>
+      <c r="D55" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="652"/>
-      <c r="F55" s="653"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="90"/>
       <c r="H55" s="14">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -61335,24 +61295,24 @@
       <c r="O55" s="91"/>
       <c r="P55" s="141"/>
       <c r="Q55" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P55, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R55" s="92" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P55, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="650">
+      <c r="B56" s="152">
         <v>50</v>
       </c>
-      <c r="C56" s="654"/>
-      <c r="D56" s="651" t="s">
+      <c r="C56" s="91"/>
+      <c r="D56" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="652"/>
-      <c r="F56" s="653"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="90"/>
       <c r="H56" s="14">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -61368,24 +61328,24 @@
       <c r="O56" s="91"/>
       <c r="P56" s="141"/>
       <c r="Q56" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P56, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R56" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P56, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="650">
+      <c r="B57" s="152">
         <v>51</v>
       </c>
-      <c r="C57" s="654"/>
-      <c r="D57" s="651" t="s">
+      <c r="C57" s="91"/>
+      <c r="D57" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="652"/>
-      <c r="F57" s="653"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="90"/>
       <c r="H57" s="14">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -61401,24 +61361,24 @@
       <c r="O57" s="91"/>
       <c r="P57" s="141"/>
       <c r="Q57" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P57, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R57" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P57, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="650">
+      <c r="B58" s="152">
         <v>52</v>
       </c>
-      <c r="C58" s="654"/>
-      <c r="D58" s="651" t="s">
+      <c r="C58" s="91"/>
+      <c r="D58" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="652"/>
-      <c r="F58" s="653"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="90"/>
       <c r="H58" s="14">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -61434,24 +61394,24 @@
       <c r="O58" s="91"/>
       <c r="P58" s="141"/>
       <c r="Q58" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P58, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R58" s="90" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P58, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="650">
+      <c r="B59" s="152">
         <v>53</v>
       </c>
-      <c r="C59" s="654"/>
-      <c r="D59" s="651" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="E59" s="652"/>
-      <c r="F59" s="653"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="90"/>
       <c r="H59" s="14">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -61467,47 +61427,47 @@
       <c r="O59" s="91"/>
       <c r="P59" s="141"/>
       <c r="Q59" s="100" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($E$5:$E$62, MATCH($P59, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R59" s="92" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$62, MATCH($P59, $D$5:$D$62,0)), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="650">
+      <c r="B60" s="152">
         <v>54</v>
       </c>
-      <c r="C60" s="654"/>
-      <c r="D60" s="651" t="s">
+      <c r="C60" s="91"/>
+      <c r="D60" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="652"/>
-      <c r="F60" s="653"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="90"/>
     </row>
     <row r="61" spans="2:18">
-      <c r="B61" s="650">
+      <c r="B61" s="152">
         <v>55</v>
       </c>
-      <c r="C61" s="654"/>
-      <c r="D61" s="651" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="652"/>
-      <c r="F61" s="653"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="90"/>
     </row>
     <row r="62" spans="2:18">
-      <c r="B62" s="650">
-        <f t="shared" ref="B62" si="4">B61+1</f>
+      <c r="B62" s="152">
+        <f t="shared" ref="B62" si="6">B61+1</f>
         <v>56</v>
       </c>
-      <c r="C62" s="654"/>
-      <c r="D62" s="651" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="652"/>
-      <c r="F62" s="653"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="90"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
